--- a/cleaned_data/meta_data_comparison_new.xlsx
+++ b/cleaned_data/meta_data_comparison_new.xlsx
@@ -10193,6 +10193,21 @@
       <c r="BD141">
         <v>-0.10307</v>
       </c>
+      <c r="ER141">
+        <v>-0.21629</v>
+      </c>
+      <c r="ES141">
+        <v>0.18246</v>
+      </c>
+      <c r="ET141">
+        <v>-0.4816437656868168</v>
+      </c>
+      <c r="EU141">
+        <v>0.6024776303091434</v>
+      </c>
+      <c r="HB141">
+        <v>0.2358551818580865</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142">
@@ -10251,6 +10266,21 @@
       <c r="BD142">
         <v>0.61496</v>
       </c>
+      <c r="ER142">
+        <v>0.3733</v>
+      </c>
+      <c r="ES142">
+        <v>0.30861</v>
+      </c>
+      <c r="ET142">
+        <v>-0.651321995525968</v>
+      </c>
+      <c r="EU142">
+        <v>0.691834055632195</v>
+      </c>
+      <c r="HB142">
+        <v>0.2264257703744166</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143">
@@ -10309,6 +10339,21 @@
       <c r="BD143">
         <v>-0.35744</v>
       </c>
+      <c r="ER143">
+        <v>-0.37621</v>
+      </c>
+      <c r="ES143">
+        <v>0.08759</v>
+      </c>
+      <c r="ET143">
+        <v>-0.1899605303106974</v>
+      </c>
+      <c r="EU143">
+        <v>0.7857913686583532</v>
+      </c>
+      <c r="HB143">
+        <v>1.745949213288306E-05</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144">
@@ -10367,6 +10412,21 @@
       <c r="BD144">
         <v>-0.58636</v>
       </c>
+      <c r="ER144">
+        <v>-0.56653</v>
+      </c>
+      <c r="ES144">
+        <v>0.19037</v>
+      </c>
+      <c r="ET144">
+        <v>0.10710813438479</v>
+      </c>
+      <c r="EU144">
+        <v>1.057295785400113</v>
+      </c>
+      <c r="HB144">
+        <v>0.002920904912301038</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145">
@@ -10425,6 +10485,21 @@
       <c r="BD145">
         <v>-0.03061</v>
       </c>
+      <c r="ER145">
+        <v>-0.03608</v>
+      </c>
+      <c r="ES145">
+        <v>0.00738</v>
+      </c>
+      <c r="ET145">
+        <v>-0.6828963795255933</v>
+      </c>
+      <c r="EU145">
+        <v>0.8488827168286833</v>
+      </c>
+      <c r="HB145">
+        <v>1.014067084445349E-06</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146">
@@ -10483,6 +10558,21 @@
       <c r="BD146">
         <v>-0.08926000000000001</v>
       </c>
+      <c r="ER146">
+        <v>-0.09462</v>
+      </c>
+      <c r="ES146">
+        <v>0.03486</v>
+      </c>
+      <c r="ET146">
+        <v>-0.1582054309327034</v>
+      </c>
+      <c r="EU146">
+        <v>1.058687931152244</v>
+      </c>
+      <c r="HB146">
+        <v>0.006641885476426638</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147">
@@ -10541,6 +10631,21 @@
       <c r="BD147">
         <v>1.369</v>
       </c>
+      <c r="ER147">
+        <v>1.75277</v>
+      </c>
+      <c r="ES147">
+        <v>2.1569</v>
+      </c>
+      <c r="ET147">
+        <v>0.1699428313325037</v>
+      </c>
+      <c r="EU147">
+        <v>0.9122705931554816</v>
+      </c>
+      <c r="HB147">
+        <v>0.4164280049484109</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148">
@@ -10599,6 +10704,21 @@
       <c r="BD148">
         <v>12.52368</v>
       </c>
+      <c r="ER148">
+        <v>18.52608</v>
+      </c>
+      <c r="ES148">
+        <v>24.24872</v>
+      </c>
+      <c r="ET148">
+        <v>0.2419821053217196</v>
+      </c>
+      <c r="EU148">
+        <v>0.9556398961581196</v>
+      </c>
+      <c r="HB148">
+        <v>0.4448658191842819</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149">
@@ -10657,6 +10777,21 @@
       <c r="BD149">
         <v>-0.31163</v>
       </c>
+      <c r="ER149">
+        <v>-0.41275</v>
+      </c>
+      <c r="ES149">
+        <v>0.58648</v>
+      </c>
+      <c r="ET149">
+        <v>-0.1762562967352843</v>
+      </c>
+      <c r="EU149">
+        <v>1.045012711536973</v>
+      </c>
+      <c r="HB149">
+        <v>0.4815728646083262</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150">
@@ -10715,6 +10850,21 @@
       <c r="BD150">
         <v>-6.375</v>
       </c>
+      <c r="ER150">
+        <v>-6.1708</v>
+      </c>
+      <c r="ES150">
+        <v>2.71869</v>
+      </c>
+      <c r="ET150">
+        <v>0.07600401980124322</v>
+      </c>
+      <c r="EU150">
+        <v>1.023955372217679</v>
+      </c>
+      <c r="HB150">
+        <v>0.02322156404654466</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151">
@@ -10773,6 +10923,21 @@
       <c r="BD151">
         <v>-0.22254</v>
       </c>
+      <c r="ER151">
+        <v>-0.42113</v>
+      </c>
+      <c r="ES151">
+        <v>0.58577</v>
+      </c>
+      <c r="ET151">
+        <v>-0.346241020991701</v>
+      </c>
+      <c r="EU151">
+        <v>1.043029373814221</v>
+      </c>
+      <c r="HB151">
+        <v>0.4721815538427715</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152">
@@ -10831,6 +10996,21 @@
       <c r="BD152">
         <v>-0.03335</v>
       </c>
+      <c r="ER152">
+        <v>-0.06691999999999999</v>
+      </c>
+      <c r="ES152">
+        <v>0.18372</v>
+      </c>
+      <c r="ET152">
+        <v>-0.1718982026729479</v>
+      </c>
+      <c r="EU152">
+        <v>0.8850195465913649</v>
+      </c>
+      <c r="HB152">
+        <v>0.7156713737311718</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153">
@@ -10889,6 +11069,21 @@
       <c r="BD153">
         <v>0.16307</v>
       </c>
+      <c r="ER153">
+        <v>0.10924</v>
+      </c>
+      <c r="ES153">
+        <v>0.21519</v>
+      </c>
+      <c r="ET153">
+        <v>-0.2385341427748482</v>
+      </c>
+      <c r="EU153">
+        <v>0.909277643766324</v>
+      </c>
+      <c r="HB153">
+        <v>0.6117027419609677</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154">
@@ -10947,6 +11142,21 @@
       <c r="BD154">
         <v>8.059189999999999</v>
       </c>
+      <c r="ER154">
+        <v>6.43189</v>
+      </c>
+      <c r="ES154">
+        <v>3.42156</v>
+      </c>
+      <c r="ET154">
+        <v>-0.3440766090069287</v>
+      </c>
+      <c r="EU154">
+        <v>0.523387528973589</v>
+      </c>
+      <c r="HB154">
+        <v>0.06013368637018272</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155">
@@ -11005,6 +11215,21 @@
       <c r="BD155">
         <v>-0.48911</v>
       </c>
+      <c r="ER155">
+        <v>-0.84137</v>
+      </c>
+      <c r="ES155">
+        <v>1.00482</v>
+      </c>
+      <c r="ET155">
+        <v>-0.2402242256441031</v>
+      </c>
+      <c r="EU155">
+        <v>0.4695517723208902</v>
+      </c>
+      <c r="HB155">
+        <v>0.4024048249170987</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156">
@@ -11063,6 +11288,21 @@
       <c r="BD156">
         <v>22.90412</v>
       </c>
+      <c r="ER156">
+        <v>22.42797</v>
+      </c>
+      <c r="ES156">
+        <v>14.99992</v>
+      </c>
+      <c r="ET156">
+        <v>-0.02625118327422249</v>
+      </c>
+      <c r="EU156">
+        <v>0.6838928706375857</v>
+      </c>
+      <c r="HB156">
+        <v>0.1348606947998841</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157">
@@ -11121,6 +11361,21 @@
       <c r="BD157">
         <v>-4.92062</v>
       </c>
+      <c r="ER157">
+        <v>1.75338</v>
+      </c>
+      <c r="ES157">
+        <v>0.9562</v>
+      </c>
+      <c r="ET157">
+        <v>2.077050675181516</v>
+      </c>
+      <c r="EU157">
+        <v>0.08855625842359958</v>
+      </c>
+      <c r="HB157">
+        <v>0.06669915061540818</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158">
@@ -11179,6 +11434,21 @@
       <c r="BD158">
         <v>-1.69399</v>
       </c>
+      <c r="ER158">
+        <v>-0.69736</v>
+      </c>
+      <c r="ES158">
+        <v>2.04897</v>
+      </c>
+      <c r="ET158">
+        <v>0.4260285976873918</v>
+      </c>
+      <c r="EU158">
+        <v>0.7671508893608345</v>
+      </c>
+      <c r="HB158">
+        <v>0.7335955178299205</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159">
@@ -11237,6 +11507,21 @@
       <c r="BD159">
         <v>-0.56549</v>
       </c>
+      <c r="ER159">
+        <v>-0.25882</v>
+      </c>
+      <c r="ES159">
+        <v>1.09109</v>
+      </c>
+      <c r="ET159">
+        <v>0.2544556920013276</v>
+      </c>
+      <c r="EU159">
+        <v>0.8196018024807644</v>
+      </c>
+      <c r="HB159">
+        <v>0.8124920721246927</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160">
@@ -11295,6 +11580,21 @@
       <c r="BD160">
         <v>0.91334</v>
       </c>
+      <c r="ER160">
+        <v>1.1056</v>
+      </c>
+      <c r="ES160">
+        <v>0.42419</v>
+      </c>
+      <c r="ET160">
+        <v>0.3691415625059998</v>
+      </c>
+      <c r="EU160">
+        <v>0.6633288228288022</v>
+      </c>
+      <c r="HB160">
+        <v>0.009150509035208082</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161">
@@ -11353,6 +11653,21 @@
       <c r="BD161">
         <v>0.06839000000000001</v>
       </c>
+      <c r="ER161">
+        <v>0.04579</v>
+      </c>
+      <c r="ES161">
+        <v>0.04057</v>
+      </c>
+      <c r="ET161">
+        <v>-0.423776486030377</v>
+      </c>
+      <c r="EU161">
+        <v>0.5787178101218987</v>
+      </c>
+      <c r="HB161">
+        <v>0.2590385452540182</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162">
@@ -11411,6 +11726,21 @@
       <c r="BD162">
         <v>0.05074</v>
       </c>
+      <c r="ER162">
+        <v>0.04822</v>
+      </c>
+      <c r="ES162">
+        <v>0.03864</v>
+      </c>
+      <c r="ET162">
+        <v>-0.04712923134467929</v>
+      </c>
+      <c r="EU162">
+        <v>0.5222204411276524</v>
+      </c>
+      <c r="HB162">
+        <v>0.2120568372129133</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163">
@@ -11469,6 +11799,21 @@
       <c r="BD163">
         <v>-0.07259</v>
       </c>
+      <c r="ER163">
+        <v>-0.02842</v>
+      </c>
+      <c r="ES163">
+        <v>0.02316</v>
+      </c>
+      <c r="ET163">
+        <v>1.16084099868594</v>
+      </c>
+      <c r="EU163">
+        <v>0.3704825761801074</v>
+      </c>
+      <c r="HB163">
+        <v>0.2197791014600075</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164">
@@ -11527,6 +11872,21 @@
       <c r="BD164">
         <v>0.15422</v>
       </c>
+      <c r="ER164">
+        <v>0.14656</v>
+      </c>
+      <c r="ES164">
+        <v>0.04296</v>
+      </c>
+      <c r="ET164">
+        <v>-0.145738203957382</v>
+      </c>
+      <c r="EU164">
+        <v>0.6680636350368006</v>
+      </c>
+      <c r="HB164">
+        <v>0.0006459569030461699</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165">
@@ -11585,6 +11945,21 @@
       <c r="BD165">
         <v>0.02215</v>
       </c>
+      <c r="ER165">
+        <v>0.01238</v>
+      </c>
+      <c r="ES165">
+        <v>0.03686</v>
+      </c>
+      <c r="ET165">
+        <v>-0.1954</v>
+      </c>
+      <c r="EU165">
+        <v>0.5434638399999998</v>
+      </c>
+      <c r="HB165">
+        <v>0.7369723419654485</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166">
@@ -11643,6 +12018,21 @@
       <c r="BD166">
         <v>-0.008840000000000001</v>
       </c>
+      <c r="ER166">
+        <v>0.00683</v>
+      </c>
+      <c r="ES166">
+        <v>0.02033</v>
+      </c>
+      <c r="ET166">
+        <v>0.6135473766640563</v>
+      </c>
+      <c r="EU166">
+        <v>0.6336259734143441</v>
+      </c>
+      <c r="HB166">
+        <v>0.7369035082245022</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167">
@@ -11701,6 +12091,21 @@
       <c r="BD167">
         <v>2.17756</v>
       </c>
+      <c r="ER167">
+        <v>2.13607</v>
+      </c>
+      <c r="ES167">
+        <v>0.16107</v>
+      </c>
+      <c r="ET167">
+        <v>-0.2532039545953865</v>
+      </c>
+      <c r="EU167">
+        <v>0.9662364492681433</v>
+      </c>
+      <c r="HB167">
+        <v>3.857890927666688E-40</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168">
@@ -11759,6 +12164,21 @@
       <c r="BD168">
         <v>0.22484</v>
       </c>
+      <c r="ER168">
+        <v>0.13027</v>
+      </c>
+      <c r="ES168">
+        <v>0.07207</v>
+      </c>
+      <c r="ET168">
+        <v>-1.034795929532772</v>
+      </c>
+      <c r="EU168">
+        <v>0.6218873022853649</v>
+      </c>
+      <c r="HB168">
+        <v>0.07067684384329145</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169">
@@ -11817,6 +12237,21 @@
       <c r="BD169">
         <v>2.02777</v>
       </c>
+      <c r="ER169">
+        <v>2.02305</v>
+      </c>
+      <c r="ES169">
+        <v>0.11496</v>
+      </c>
+      <c r="ET169">
+        <v>-0.04058120539936236</v>
+      </c>
+      <c r="EU169">
+        <v>0.9769208952966874</v>
+      </c>
+      <c r="HB169">
+        <v>2.558084738947316E-69</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170">
@@ -11875,6 +12310,21 @@
       <c r="BD170">
         <v>-0.04703</v>
       </c>
+      <c r="ER170">
+        <v>-0.0405</v>
+      </c>
+      <c r="ES170">
+        <v>0.0316</v>
+      </c>
+      <c r="ET170">
+        <v>0.1338114754098361</v>
+      </c>
+      <c r="EU170">
+        <v>0.4193093254501479</v>
+      </c>
+      <c r="HB170">
+        <v>0.1999670068705035</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171">
@@ -11933,6 +12383,21 @@
       <c r="BD171">
         <v>4.54275</v>
       </c>
+      <c r="ER171">
+        <v>4.53538</v>
+      </c>
+      <c r="ES171">
+        <v>0.13843</v>
+      </c>
+      <c r="ET171">
+        <v>-0.05496718377088213</v>
+      </c>
+      <c r="EU171">
+        <v>1.065939203690242</v>
+      </c>
+      <c r="HB171">
+        <v>1.983547356374612E-235</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172">
@@ -11991,6 +12456,21 @@
       <c r="BD172">
         <v>12.27345</v>
       </c>
+      <c r="ER172">
+        <v>12.42031</v>
+      </c>
+      <c r="ES172">
+        <v>0.50742</v>
+      </c>
+      <c r="ET172">
+        <v>0.300032687750266</v>
+      </c>
+      <c r="EU172">
+        <v>1.074645586032802</v>
+      </c>
+      <c r="HB172">
+        <v>2.572987999388812E-132</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173">
@@ -12049,6 +12529,21 @@
       <c r="BD173">
         <v>0.32111</v>
       </c>
+      <c r="ER173">
+        <v>0.34291</v>
+      </c>
+      <c r="ES173">
+        <v>0.41102</v>
+      </c>
+      <c r="ET173">
+        <v>0.05278833813594205</v>
+      </c>
+      <c r="EU173">
+        <v>0.9905785110071705</v>
+      </c>
+      <c r="HB173">
+        <v>0.4041174153338893</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174">
@@ -12107,6 +12602,21 @@
       <c r="BD174">
         <v>2.5652</v>
       </c>
+      <c r="ER174">
+        <v>2.55105</v>
+      </c>
+      <c r="ES174">
+        <v>1.94799</v>
+      </c>
+      <c r="ET174">
+        <v>-0.007481033069866972</v>
+      </c>
+      <c r="EU174">
+        <v>1.060678377379495</v>
+      </c>
+      <c r="HB174">
+        <v>0.1903377397539995</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175">
@@ -12165,6 +12675,21 @@
       <c r="BD175">
         <v>-0.6194</v>
       </c>
+      <c r="ER175">
+        <v>-0.53556</v>
+      </c>
+      <c r="ES175">
+        <v>0.5006699999999999</v>
+      </c>
+      <c r="ET175">
+        <v>0.1674556094832922</v>
+      </c>
+      <c r="EU175">
+        <v>1</v>
+      </c>
+      <c r="HB175">
+        <v>0.2847603909587276</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176">
@@ -12223,6 +12748,21 @@
       <c r="BD176">
         <v>0.15831</v>
       </c>
+      <c r="ER176">
+        <v>0.1679</v>
+      </c>
+      <c r="ES176">
+        <v>0.04073</v>
+      </c>
+      <c r="ET176">
+        <v>0.2317544707588204</v>
+      </c>
+      <c r="EU176">
+        <v>0.9688306004469768</v>
+      </c>
+      <c r="HB176">
+        <v>3.751593976250459E-05</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177">
@@ -12281,6 +12821,21 @@
       <c r="BD177">
         <v>0.09589</v>
       </c>
+      <c r="ER177">
+        <v>0.08442</v>
+      </c>
+      <c r="ES177">
+        <v>0.05831</v>
+      </c>
+      <c r="ET177">
+        <v>-0.1960013670539988</v>
+      </c>
+      <c r="EU177">
+        <v>0.9928358439596163</v>
+      </c>
+      <c r="HB177">
+        <v>0.147678836416544</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178">
@@ -12339,6 +12894,21 @@
       <c r="BD178">
         <v>0.44645</v>
       </c>
+      <c r="ER178">
+        <v>0.44569</v>
+      </c>
+      <c r="ES178">
+        <v>0.10671</v>
+      </c>
+      <c r="ET178">
+        <v>-0.007130793769938436</v>
+      </c>
+      <c r="EU178">
+        <v>1.002440969847393</v>
+      </c>
+      <c r="HB178">
+        <v>2.958376016843787E-05</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179">
@@ -12397,6 +12967,21 @@
       <c r="BD179">
         <v>0.15033</v>
       </c>
+      <c r="ER179">
+        <v>0.18202</v>
+      </c>
+      <c r="ES179">
+        <v>0.11926</v>
+      </c>
+      <c r="ET179">
+        <v>0.2719471380760319</v>
+      </c>
+      <c r="EU179">
+        <v>1.047403732266065</v>
+      </c>
+      <c r="HB179">
+        <v>0.1269488158806113</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180">
@@ -12455,6 +13040,21 @@
       <c r="BD180">
         <v>-0.1059</v>
       </c>
+      <c r="ER180">
+        <v>-0.07994</v>
+      </c>
+      <c r="ES180">
+        <v>0.12223</v>
+      </c>
+      <c r="ET180">
+        <v>0.209388611066301</v>
+      </c>
+      <c r="EU180">
+        <v>0.9719688785672569</v>
+      </c>
+      <c r="HB180">
+        <v>0.5131034776252315</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181">
@@ -12513,6 +13113,21 @@
       <c r="BD181">
         <v>0.40277</v>
       </c>
+      <c r="ER181">
+        <v>0.42978</v>
+      </c>
+      <c r="ES181">
+        <v>0.10848</v>
+      </c>
+      <c r="ET181">
+        <v>0.2455677788889897</v>
+      </c>
+      <c r="EU181">
+        <v>0.9727314307334272</v>
+      </c>
+      <c r="HB181">
+        <v>7.43755342349363E-05</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182">
@@ -12571,6 +13186,21 @@
       <c r="BD182">
         <v>0.04581</v>
       </c>
+      <c r="ER182">
+        <v>0.05034</v>
+      </c>
+      <c r="ES182">
+        <v>0.12149</v>
+      </c>
+      <c r="ET182">
+        <v>0.03648518041237118</v>
+      </c>
+      <c r="EU182">
+        <v>0.9574534233450851</v>
+      </c>
+      <c r="HB182">
+        <v>0.6786140731719796</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183">
@@ -12629,6 +13259,21 @@
       <c r="BD183">
         <v>0.04851</v>
       </c>
+      <c r="ER183">
+        <v>0.04167</v>
+      </c>
+      <c r="ES183">
+        <v>0.01802</v>
+      </c>
+      <c r="ET183">
+        <v>-0.3783185840707964</v>
+      </c>
+      <c r="EU183">
+        <v>0.9933738448586423</v>
+      </c>
+      <c r="HB183">
+        <v>0.02075396389107933</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184">
@@ -12687,6 +13332,21 @@
       <c r="BD184">
         <v>5.38655</v>
       </c>
+      <c r="ER184">
+        <v>6.30307</v>
+      </c>
+      <c r="ES184">
+        <v>3.4256</v>
+      </c>
+      <c r="ET184">
+        <v>0.1901631861234737</v>
+      </c>
+      <c r="EU184">
+        <v>0.5051755204077863</v>
+      </c>
+      <c r="HB184">
+        <v>0.0657696944962925</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185">
@@ -12745,6 +13405,21 @@
       <c r="BD185">
         <v>-1.09265</v>
       </c>
+      <c r="ER185">
+        <v>-1.14765</v>
+      </c>
+      <c r="ES185">
+        <v>1.81234</v>
+      </c>
+      <c r="ET185">
+        <v>-0.02712325794711466</v>
+      </c>
+      <c r="EU185">
+        <v>0.798799310038759</v>
+      </c>
+      <c r="HB185">
+        <v>0.5265755526151455</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186">
@@ -12803,6 +13478,21 @@
       <c r="BD186">
         <v>-16.00163</v>
       </c>
+      <c r="ER186">
+        <v>-27.64034</v>
+      </c>
+      <c r="ES186">
+        <v>21.34548</v>
+      </c>
+      <c r="ET186">
+        <v>-0.3949164815149101</v>
+      </c>
+      <c r="EU186">
+        <v>0.5245811424106452</v>
+      </c>
+      <c r="HB186">
+        <v>0.195353468617227</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187">
@@ -12861,6 +13551,21 @@
       <c r="BD187">
         <v>-4.51594</v>
       </c>
+      <c r="ER187">
+        <v>1.84574</v>
+      </c>
+      <c r="ES187">
+        <v>1.09622</v>
+      </c>
+      <c r="ET187">
+        <v>1.961550202115818</v>
+      </c>
+      <c r="EU187">
+        <v>0.114248539797627</v>
+      </c>
+      <c r="HB187">
+        <v>0.09223359631575657</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188">
@@ -12919,6 +13624,21 @@
       <c r="BD188">
         <v>-3.27196</v>
       </c>
+      <c r="ER188">
+        <v>-1.95963</v>
+      </c>
+      <c r="ES188">
+        <v>2.10067</v>
+      </c>
+      <c r="ET188">
+        <v>0.588401716337941</v>
+      </c>
+      <c r="EU188">
+        <v>0.8871098763252345</v>
+      </c>
+      <c r="HB188">
+        <v>0.3508925071455207</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189">
@@ -12977,6 +13697,21 @@
       <c r="BD189">
         <v>0.74114</v>
       </c>
+      <c r="ER189">
+        <v>0.86297</v>
+      </c>
+      <c r="ES189">
+        <v>1.05342</v>
+      </c>
+      <c r="ET189">
+        <v>0.1007084225405669</v>
+      </c>
+      <c r="EU189">
+        <v>0.7582740915328369</v>
+      </c>
+      <c r="HB189">
+        <v>0.4126678008311153</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190">
@@ -13035,6 +13770,21 @@
       <c r="BD190">
         <v>0.02126</v>
       </c>
+      <c r="ER190">
+        <v>0.38427</v>
+      </c>
+      <c r="ES190">
+        <v>0.72707</v>
+      </c>
+      <c r="ET190">
+        <v>0.411832775540303</v>
+      </c>
+      <c r="EU190">
+        <v>0.6803886911711109</v>
+      </c>
+      <c r="HB190">
+        <v>0.5971394585140353</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191">
@@ -13093,6 +13843,21 @@
       <c r="BD191">
         <v>0.07956000000000001</v>
       </c>
+      <c r="ER191">
+        <v>0.06036</v>
+      </c>
+      <c r="ES191">
+        <v>0.04541</v>
+      </c>
+      <c r="ET191">
+        <v>-0.3599550056242972</v>
+      </c>
+      <c r="EU191">
+        <v>0.7247646139283209</v>
+      </c>
+      <c r="HB191">
+        <v>0.1837745284510917</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192">
@@ -13151,6 +13916,21 @@
       <c r="BD192">
         <v>0.07160999999999999</v>
       </c>
+      <c r="ER192">
+        <v>0.06708</v>
+      </c>
+      <c r="ES192">
+        <v>0.04184</v>
+      </c>
+      <c r="ET192">
+        <v>-0.08457804331590725</v>
+      </c>
+      <c r="EU192">
+        <v>0.6102421690637791</v>
+      </c>
+      <c r="HB192">
+        <v>0.1088793650628035</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193">
@@ -13209,6 +13989,21 @@
       <c r="BD193">
         <v>-0.06112</v>
       </c>
+      <c r="ER193">
+        <v>-0.03419</v>
+      </c>
+      <c r="ES193">
+        <v>0.03049</v>
+      </c>
+      <c r="ET193">
+        <v>0.7068241469816273</v>
+      </c>
+      <c r="EU193">
+        <v>0.6404200163955882</v>
+      </c>
+      <c r="HB193">
+        <v>0.26213837298649</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194">
@@ -13267,6 +14062,21 @@
       <c r="BD194">
         <v>0.08659</v>
       </c>
+      <c r="ER194">
+        <v>0.09104</v>
+      </c>
+      <c r="ES194">
+        <v>0.04526</v>
+      </c>
+      <c r="ET194">
+        <v>0.08350534809532738</v>
+      </c>
+      <c r="EU194">
+        <v>0.7213360855695253</v>
+      </c>
+      <c r="HB194">
+        <v>0.044273812726367</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195">
@@ -13325,6 +14135,21 @@
       <c r="BD195">
         <v>-0.01107</v>
       </c>
+      <c r="ER195">
+        <v>-0.02504</v>
+      </c>
+      <c r="ES195">
+        <v>0.04085</v>
+      </c>
+      <c r="ET195">
+        <v>-0.2744058141818896</v>
+      </c>
+      <c r="EU195">
+        <v>0.6438399599109215</v>
+      </c>
+      <c r="HB195">
+        <v>0.539893335596257</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196">
@@ -13383,6 +14208,21 @@
       <c r="BD196">
         <v>0.00233</v>
       </c>
+      <c r="ER196">
+        <v>0.02071</v>
+      </c>
+      <c r="ES196">
+        <v>0.02278</v>
+      </c>
+      <c r="ET196">
+        <v>0.6896810506566604</v>
+      </c>
+      <c r="EU196">
+        <v>0.7306560972089734</v>
+      </c>
+      <c r="HB196">
+        <v>0.3632810776433794</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197">
@@ -13441,6 +14281,21 @@
       <c r="BD197">
         <v>1.74157</v>
       </c>
+      <c r="ER197">
+        <v>1.73826</v>
+      </c>
+      <c r="ES197">
+        <v>0.29976</v>
+      </c>
+      <c r="ET197">
+        <v>-0.01084747984531738</v>
+      </c>
+      <c r="EU197">
+        <v>0.9650483585620101</v>
+      </c>
+      <c r="HB197">
+        <v>6.677557404612874E-09</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198">
@@ -13499,6 +14354,21 @@
       <c r="BD198">
         <v>0.38409</v>
       </c>
+      <c r="ER198">
+        <v>0.20649</v>
+      </c>
+      <c r="ES198">
+        <v>0.11752</v>
+      </c>
+      <c r="ET198">
+        <v>-1.139484152444501</v>
+      </c>
+      <c r="EU198">
+        <v>0.5685310936456692</v>
+      </c>
+      <c r="HB198">
+        <v>0.07890713493480048</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199">
@@ -13557,6 +14427,21 @@
       <c r="BD199">
         <v>1.80749</v>
       </c>
+      <c r="ER199">
+        <v>1.84274</v>
+      </c>
+      <c r="ES199">
+        <v>0.22722</v>
+      </c>
+      <c r="ET199">
+        <v>0.1529483229921465</v>
+      </c>
+      <c r="EU199">
+        <v>0.9719956187785987</v>
+      </c>
+      <c r="HB199">
+        <v>5.064580313923748E-16</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200">
@@ -13615,6 +14500,21 @@
       <c r="BD200">
         <v>-0.15876</v>
       </c>
+      <c r="ER200">
+        <v>-0.1341</v>
+      </c>
+      <c r="ES200">
+        <v>0.06049</v>
+      </c>
+      <c r="ET200">
+        <v>0.3069072806471688</v>
+      </c>
+      <c r="EU200">
+        <v>0.5667550607969413</v>
+      </c>
+      <c r="HB200">
+        <v>0.02663024328473829</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201">
@@ -13673,6 +14573,21 @@
       <c r="BD201">
         <v>4.68929</v>
       </c>
+      <c r="ER201">
+        <v>4.72894</v>
+      </c>
+      <c r="ES201">
+        <v>0.34027</v>
+      </c>
+      <c r="ET201">
+        <v>0.1161972862878409</v>
+      </c>
+      <c r="EU201">
+        <v>0.9943812115512424</v>
+      </c>
+      <c r="HB201">
+        <v>6.549127267259911E-44</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202">
@@ -13731,6 +14646,21 @@
       <c r="BD202">
         <v>12.75166</v>
       </c>
+      <c r="ER202">
+        <v>13.07474</v>
+      </c>
+      <c r="ES202">
+        <v>1.05024</v>
+      </c>
+      <c r="ET202">
+        <v>0.3064984346836172</v>
+      </c>
+      <c r="EU202">
+        <v>0.9926896261282724</v>
+      </c>
+      <c r="HB202">
+        <v>1.410986369700314E-35</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203">
@@ -13789,6 +14719,21 @@
       <c r="BD203">
         <v>-42.83042</v>
       </c>
+      <c r="ER203">
+        <v>-41.18431</v>
+      </c>
+      <c r="ES203">
+        <v>30.28264</v>
+      </c>
+      <c r="ET203">
+        <v>0.05391005155500106</v>
+      </c>
+      <c r="EU203">
+        <v>0.9835790169865114</v>
+      </c>
+      <c r="HB203">
+        <v>0.1738307640650477</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204">
@@ -13847,6 +14792,21 @@
       <c r="BD204">
         <v>-0.03261</v>
       </c>
+      <c r="ER204">
+        <v>-0.0308</v>
+      </c>
+      <c r="ES204">
+        <v>0.03784</v>
+      </c>
+      <c r="ET204">
+        <v>0.04748163693599158</v>
+      </c>
+      <c r="EU204">
+        <v>0.9853635011324484</v>
+      </c>
+      <c r="HB204">
+        <v>0.4156715967749747</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205">
@@ -13905,6 +14865,21 @@
       <c r="BD205">
         <v>0.0251</v>
       </c>
+      <c r="ER205">
+        <v>0.06378</v>
+      </c>
+      <c r="ES205">
+        <v>1.31876</v>
+      </c>
+      <c r="ET205">
+        <v>0.02928749905353222</v>
+      </c>
+      <c r="EU205">
+        <v>0.9970643217240222</v>
+      </c>
+      <c r="HB205">
+        <v>0.961426456932613</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206">
@@ -13963,6 +14938,21 @@
       <c r="BD206">
         <v>-0.35565</v>
       </c>
+      <c r="ER206">
+        <v>-0.39123</v>
+      </c>
+      <c r="ES206">
+        <v>1.03</v>
+      </c>
+      <c r="ET206">
+        <v>-0.03454838521740819</v>
+      </c>
+      <c r="EU206">
+        <v>1.00027190009488</v>
+      </c>
+      <c r="HB206">
+        <v>0.7040679358077765</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207">
@@ -14021,6 +15011,21 @@
       <c r="BD207">
         <v>-1.20084</v>
       </c>
+      <c r="ER207">
+        <v>-1.12534</v>
+      </c>
+      <c r="ES207">
+        <v>1.50986</v>
+      </c>
+      <c r="ET207">
+        <v>0.04827921372024907</v>
+      </c>
+      <c r="EU207">
+        <v>0.9321801123454759</v>
+      </c>
+      <c r="HB207">
+        <v>0.4560738321496731</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208">
@@ -14079,6 +15084,21 @@
       <c r="BD208">
         <v>-35.12552</v>
       </c>
+      <c r="ER208">
+        <v>-33.05343</v>
+      </c>
+      <c r="ES208">
+        <v>26.47295</v>
+      </c>
+      <c r="ET208">
+        <v>0.07668891486197715</v>
+      </c>
+      <c r="EU208">
+        <v>0.9599588888607546</v>
+      </c>
+      <c r="HB208">
+        <v>0.2118210246680633</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209">
@@ -14137,6 +15157,21 @@
       <c r="BD209">
         <v>1.02459</v>
       </c>
+      <c r="ER209">
+        <v>0.81146</v>
+      </c>
+      <c r="ES209">
+        <v>1.281</v>
+      </c>
+      <c r="ET209">
+        <v>-0.1659516152893816</v>
+      </c>
+      <c r="EU209">
+        <v>0.994883109018123</v>
+      </c>
+      <c r="HB209">
+        <v>0.526434445787234</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210">
@@ -14195,6 +15230,21 @@
       <c r="BD210">
         <v>-0.92604</v>
       </c>
+      <c r="ER210">
+        <v>-0.9085800000000001</v>
+      </c>
+      <c r="ES210">
+        <v>0.98931</v>
+      </c>
+      <c r="ET210">
+        <v>0.01745022787239138</v>
+      </c>
+      <c r="EU210">
+        <v>0.9776390138169305</v>
+      </c>
+      <c r="HB210">
+        <v>0.3584107095288619</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211">
@@ -14253,6 +15303,21 @@
       <c r="BD211">
         <v>-1.79639</v>
       </c>
+      <c r="ER211">
+        <v>-1.88366</v>
+      </c>
+      <c r="ES211">
+        <v>1.48742</v>
+      </c>
+      <c r="ET211">
+        <v>-0.0573036363875136</v>
+      </c>
+      <c r="EU211">
+        <v>0.9538973590100843</v>
+      </c>
+      <c r="HB211">
+        <v>0.2053720010636181</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212">
@@ -14311,6 +15376,21 @@
       <c r="BD212">
         <v>-43.46574</v>
       </c>
+      <c r="ER212">
+        <v>-41.82137</v>
+      </c>
+      <c r="ES212">
+        <v>30.15275</v>
+      </c>
+      <c r="ET212">
+        <v>0.05401370470020418</v>
+      </c>
+      <c r="EU212">
+        <v>0.980985742885553</v>
+      </c>
+      <c r="HB212">
+        <v>0.1654467611483717</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213">
@@ -14369,6 +15449,21 @@
       <c r="BD213">
         <v>-0.07009</v>
       </c>
+      <c r="ER213">
+        <v>-0.07038</v>
+      </c>
+      <c r="ES213">
+        <v>0.02597</v>
+      </c>
+      <c r="ET213">
+        <v>-0.01118395680678745</v>
+      </c>
+      <c r="EU213">
+        <v>1.003087609124153</v>
+      </c>
+      <c r="HB213">
+        <v>0.006727305427844607</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214">
@@ -14427,6 +15522,21 @@
       <c r="BD214">
         <v>-0.01649</v>
       </c>
+      <c r="ER214">
+        <v>-0.01426</v>
+      </c>
+      <c r="ES214">
+        <v>0.02294</v>
+      </c>
+      <c r="ET214">
+        <v>0.09721011333914566</v>
+      </c>
+      <c r="EU214">
+        <v>1</v>
+      </c>
+      <c r="HB214">
+        <v>0.5341907002664499</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215">
@@ -14485,6 +15595,21 @@
       <c r="BD215">
         <v>-0.0197</v>
       </c>
+      <c r="ER215">
+        <v>-0.02083</v>
+      </c>
+      <c r="ES215">
+        <v>0.01788</v>
+      </c>
+      <c r="ET215">
+        <v>-0.06215621562156229</v>
+      </c>
+      <c r="EU215">
+        <v>0.9672690041281354</v>
+      </c>
+      <c r="HB215">
+        <v>0.2440235206432315</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216">
@@ -14543,6 +15668,21 @@
       <c r="BD216">
         <v>-0.00788</v>
       </c>
+      <c r="ER216">
+        <v>-0.00732</v>
+      </c>
+      <c r="ES216">
+        <v>0.02199</v>
+      </c>
+      <c r="ET216">
+        <v>0.02499999999999999</v>
+      </c>
+      <c r="EU216">
+        <v>0.963727877869898</v>
+      </c>
+      <c r="HB216">
+        <v>0.739225938043172</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217">
@@ -14601,6 +15741,21 @@
       <c r="BD217">
         <v>0.0065</v>
       </c>
+      <c r="ER217">
+        <v>0.01008</v>
+      </c>
+      <c r="ES217">
+        <v>0.02183</v>
+      </c>
+      <c r="ET217">
+        <v>0.1594654788418708</v>
+      </c>
+      <c r="EU217">
+        <v>0.9455288416228091</v>
+      </c>
+      <c r="HB217">
+        <v>0.6442606927087895</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218">
@@ -14659,6 +15814,21 @@
       <c r="BD218">
         <v>-0.0256</v>
       </c>
+      <c r="ER218">
+        <v>-0.02585</v>
+      </c>
+      <c r="ES218">
+        <v>0.01945</v>
+      </c>
+      <c r="ET218">
+        <v>-0.01256281407035177</v>
+      </c>
+      <c r="EU218">
+        <v>0.9552852200702</v>
+      </c>
+      <c r="HB218">
+        <v>0.1838318561650261</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219">
@@ -14717,6 +15887,21 @@
       <c r="BD219">
         <v>0.08792999999999999</v>
       </c>
+      <c r="ER219">
+        <v>0.08223</v>
+      </c>
+      <c r="ES219">
+        <v>0.1553</v>
+      </c>
+      <c r="ET219">
+        <v>-0.03628955242885336</v>
+      </c>
+      <c r="EU219">
+        <v>0.9775892651938675</v>
+      </c>
+      <c r="HB219">
+        <v>0.5964646731074427</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220">
@@ -14775,6 +15960,21 @@
       <c r="BD220">
         <v>71.33718</v>
       </c>
+      <c r="ER220">
+        <v>66.43328</v>
+      </c>
+      <c r="ES220">
+        <v>9.96978</v>
+      </c>
+      <c r="ET220">
+        <v>-0.3314050536246482</v>
+      </c>
+      <c r="EU220">
+        <v>0.453948089254984</v>
+      </c>
+      <c r="HB220">
+        <v>2.674457769581408E-11</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221">
@@ -14833,6 +16033,21 @@
       <c r="BD221">
         <v>69.19817999999999</v>
       </c>
+      <c r="ER221">
+        <v>64.12464</v>
+      </c>
+      <c r="ES221">
+        <v>11.30484</v>
+      </c>
+      <c r="ET221">
+        <v>-0.313634509105745</v>
+      </c>
+      <c r="EU221">
+        <v>0.4883760371389055</v>
+      </c>
+      <c r="HB221">
+        <v>1.408786955574181E-08</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222">
@@ -14891,6 +16106,21 @@
       <c r="BD222">
         <v>17.08974</v>
       </c>
+      <c r="ER222">
+        <v>20.10432</v>
+      </c>
+      <c r="ES222">
+        <v>4.80366</v>
+      </c>
+      <c r="ET222">
+        <v>0.4698564205512507</v>
+      </c>
+      <c r="EU222">
+        <v>0.5605588661985045</v>
+      </c>
+      <c r="HB222">
+        <v>2.849041200736411E-05</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223">
@@ -14949,6 +16179,21 @@
       <c r="BD223">
         <v>19.89636</v>
       </c>
+      <c r="ER223">
+        <v>22.63888</v>
+      </c>
+      <c r="ES223">
+        <v>4.41333</v>
+      </c>
+      <c r="ET223">
+        <v>0.4584252684505421</v>
+      </c>
+      <c r="EU223">
+        <v>0.5442147318666114</v>
+      </c>
+      <c r="HB223">
+        <v>2.902667938549661E-07</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224">
@@ -15007,6 +16252,21 @@
       <c r="BD224">
         <v>0.04043</v>
       </c>
+      <c r="ER224">
+        <v>-0.03113</v>
+      </c>
+      <c r="ES224">
+        <v>0.08912</v>
+      </c>
+      <c r="ET224">
+        <v>-0.4485114384205578</v>
+      </c>
+      <c r="EU224">
+        <v>0.3120015406854185</v>
+      </c>
+      <c r="HB224">
+        <v>0.7268608639923333</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225">
@@ -15065,6 +16325,21 @@
       <c r="BD225">
         <v>-0.03893</v>
       </c>
+      <c r="ER225">
+        <v>-0.06147</v>
+      </c>
+      <c r="ES225">
+        <v>0.07314</v>
+      </c>
+      <c r="ET225">
+        <v>-0.152906858422088</v>
+      </c>
+      <c r="EU225">
+        <v>0.2461818435563798</v>
+      </c>
+      <c r="HB225">
+        <v>0.4006600559376869</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226">
@@ -15123,6 +16398,21 @@
       <c r="BD226">
         <v>0.10492</v>
       </c>
+      <c r="ER226">
+        <v>0.00658</v>
+      </c>
+      <c r="ES226">
+        <v>0.09314</v>
+      </c>
+      <c r="ET226">
+        <v>-0.718859649122807</v>
+      </c>
+      <c r="EU226">
+        <v>0.4635539353989261</v>
+      </c>
+      <c r="HB226">
+        <v>0.9436792294547389</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227">
@@ -15181,6 +16471,21 @@
       <c r="BD227">
         <v>-0.04903</v>
       </c>
+      <c r="ER227">
+        <v>-0.09263</v>
+      </c>
+      <c r="ES227">
+        <v>0.07679999999999999</v>
+      </c>
+      <c r="ET227">
+        <v>-0.3407847428482101</v>
+      </c>
+      <c r="EU227">
+        <v>0.3603377374530899</v>
+      </c>
+      <c r="HB227">
+        <v>0.2277713046236134</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228">
@@ -15239,6 +16544,21 @@
       <c r="BD228">
         <v>0.02348</v>
       </c>
+      <c r="ER228">
+        <v>0.02115</v>
+      </c>
+      <c r="ES228">
+        <v>0.01969</v>
+      </c>
+      <c r="ET228">
+        <v>-0.1183943089430895</v>
+      </c>
+      <c r="EU228">
+        <v>1.001016518358781</v>
+      </c>
+      <c r="HB228">
+        <v>0.2827557651269429</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229">
@@ -15297,6 +16617,21 @@
       <c r="BD229">
         <v>-0.01003</v>
       </c>
+      <c r="ER229">
+        <v>-0.01293</v>
+      </c>
+      <c r="ES229">
+        <v>0.01707</v>
+      </c>
+      <c r="ET229">
+        <v>-0.168997668997669</v>
+      </c>
+      <c r="EU229">
+        <v>0.9895379969680665</v>
+      </c>
+      <c r="HB229">
+        <v>0.4487687850757635</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230">
@@ -15355,6 +16690,21 @@
       <c r="BD230">
         <v>15.95408</v>
       </c>
+      <c r="ER230">
+        <v>10.11439</v>
+      </c>
+      <c r="ES230">
+        <v>3.49386</v>
+      </c>
+      <c r="ET230">
+        <v>-1.033783867512856</v>
+      </c>
+      <c r="EU230">
+        <v>0.3825523834880696</v>
+      </c>
+      <c r="HB230">
+        <v>0.003792742594543115</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231">
@@ -15413,6 +16763,21 @@
       <c r="BD231">
         <v>8.522019999999999</v>
       </c>
+      <c r="ER231">
+        <v>3.33959</v>
+      </c>
+      <c r="ES231">
+        <v>3.84957</v>
+      </c>
+      <c r="ET231">
+        <v>-0.8166798776500104</v>
+      </c>
+      <c r="EU231">
+        <v>0.3680113922692407</v>
+      </c>
+      <c r="HB231">
+        <v>0.385655588617069</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232">
@@ -15471,6 +16836,21 @@
       <c r="BD232">
         <v>0.62958</v>
       </c>
+      <c r="ER232">
+        <v>0.45697</v>
+      </c>
+      <c r="ES232">
+        <v>0.33547</v>
+      </c>
+      <c r="ET232">
+        <v>-0.4151574187651828</v>
+      </c>
+      <c r="EU232">
+        <v>0.6510301150108369</v>
+      </c>
+      <c r="HB232">
+        <v>0.173141579382744</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233">
@@ -15529,6 +16909,21 @@
       <c r="BD233">
         <v>0.16307</v>
       </c>
+      <c r="ER233">
+        <v>-0.10131</v>
+      </c>
+      <c r="ES233">
+        <v>0.35873</v>
+      </c>
+      <c r="ET233">
+        <v>-0.6238761592373222</v>
+      </c>
+      <c r="EU233">
+        <v>0.7165969877431291</v>
+      </c>
+      <c r="HB233">
+        <v>0.7776268810838745</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234">
@@ -15587,6 +16982,21 @@
       <c r="BD234">
         <v>3.60447</v>
       </c>
+      <c r="ER234">
+        <v>3.72254</v>
+      </c>
+      <c r="ES234">
+        <v>1.20331</v>
+      </c>
+      <c r="ET234">
+        <v>0.0824672421981951</v>
+      </c>
+      <c r="EU234">
+        <v>0.7063807707251097</v>
+      </c>
+      <c r="HB234">
+        <v>0.001977548737072531</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235">
@@ -15645,6 +17055,21 @@
       <c r="BD235">
         <v>2.27361</v>
       </c>
+      <c r="ER235">
+        <v>1.91848</v>
+      </c>
+      <c r="ES235">
+        <v>1.56189</v>
+      </c>
+      <c r="ET235">
+        <v>-0.2209206842923796</v>
+      </c>
+      <c r="EU235">
+        <v>0.9440585405600208</v>
+      </c>
+      <c r="HB235">
+        <v>0.2193318451904193</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236">
@@ -15703,6 +17128,21 @@
       <c r="BD236">
         <v>2.49417</v>
       </c>
+      <c r="ER236">
+        <v>2.91403</v>
+      </c>
+      <c r="ES236">
+        <v>1.51726</v>
+      </c>
+      <c r="ET236">
+        <v>0.2675664997004805</v>
+      </c>
+      <c r="EU236">
+        <v>0.9349200824325465</v>
+      </c>
+      <c r="HB236">
+        <v>0.05478378137377601</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237">
@@ -15761,6 +17201,21 @@
       <c r="BD237">
         <v>2.47065</v>
       </c>
+      <c r="ER237">
+        <v>1.98403</v>
+      </c>
+      <c r="ES237">
+        <v>1.49666</v>
+      </c>
+      <c r="ET237">
+        <v>-0.3097616092173526</v>
+      </c>
+      <c r="EU237">
+        <v>0.9076566176110873</v>
+      </c>
+      <c r="HB237">
+        <v>0.1849594932722279</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238">
@@ -15819,6 +17274,21 @@
       <c r="BD238">
         <v>0.28718</v>
       </c>
+      <c r="ER238">
+        <v>0.30553</v>
+      </c>
+      <c r="ES238">
+        <v>0.07650999999999999</v>
+      </c>
+      <c r="ET238">
+        <v>0.2348950332821305</v>
+      </c>
+      <c r="EU238">
+        <v>0.9592061060366643</v>
+      </c>
+      <c r="HB238">
+        <v>6.515063861185656E-05</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239">
@@ -15877,6 +17347,21 @@
       <c r="BD239">
         <v>0.12</v>
       </c>
+      <c r="ER239">
+        <v>0.12883</v>
+      </c>
+      <c r="ES239">
+        <v>0.09222</v>
+      </c>
+      <c r="ET239">
+        <v>0.09504843918191609</v>
+      </c>
+      <c r="EU239">
+        <v>0.9854141807863126</v>
+      </c>
+      <c r="HB239">
+        <v>0.1624179406789192</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240">
@@ -15935,6 +17420,21 @@
       <c r="BD240">
         <v>0.12407</v>
       </c>
+      <c r="ER240">
+        <v>0.12048</v>
+      </c>
+      <c r="ES240">
+        <v>0.09377000000000001</v>
+      </c>
+      <c r="ET240">
+        <v>-0.03824030677460583</v>
+      </c>
+      <c r="EU240">
+        <v>0.9976579557727104</v>
+      </c>
+      <c r="HB240">
+        <v>0.1988461392791771</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241">
@@ -15993,6 +17493,21 @@
       <c r="BD241">
         <v>0.05</v>
       </c>
+      <c r="ER241">
+        <v>0.04584</v>
+      </c>
+      <c r="ES241">
+        <v>0.09007</v>
+      </c>
+      <c r="ET241">
+        <v>-0.04586549062844546</v>
+      </c>
+      <c r="EU241">
+        <v>0.9861562950906156</v>
+      </c>
+      <c r="HB241">
+        <v>0.6107960384751926</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242">
@@ -16051,6 +17566,21 @@
       <c r="BD242">
         <v>-0.04011</v>
       </c>
+      <c r="ER242">
+        <v>-0.05165</v>
+      </c>
+      <c r="ES242">
+        <v>0.08874</v>
+      </c>
+      <c r="ET242">
+        <v>-0.1282649772146271</v>
+      </c>
+      <c r="EU242">
+        <v>0.9728444548760891</v>
+      </c>
+      <c r="HB242">
+        <v>0.560541480848034</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243">
@@ -16109,6 +17639,21 @@
       <c r="BD243">
         <v>-11.78571</v>
       </c>
+      <c r="ER243">
+        <v>-11.80919</v>
+      </c>
+      <c r="ES243">
+        <v>5.1698</v>
+      </c>
+      <c r="ET243">
+        <v>-0.004495104777293073</v>
+      </c>
+      <c r="EU243">
+        <v>0.979559763637363</v>
+      </c>
+      <c r="HB243">
+        <v>0.02235599786003987</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244">
@@ -16167,6 +17712,21 @@
       <c r="BD244">
         <v>-3.57143</v>
       </c>
+      <c r="ER244">
+        <v>-1.84155</v>
+      </c>
+      <c r="ES244">
+        <v>5.54603</v>
+      </c>
+      <c r="ET244">
+        <v>0.3442513009820797</v>
+      </c>
+      <c r="EU244">
+        <v>1.218101993974516</v>
+      </c>
+      <c r="HB244">
+        <v>0.7398527652028076</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245">
@@ -16225,6 +17785,21 @@
       <c r="BD245">
         <v>-1.92857</v>
       </c>
+      <c r="ER245">
+        <v>-2.04962</v>
+      </c>
+      <c r="ES245">
+        <v>4.14918</v>
+      </c>
+      <c r="ET245">
+        <v>-0.02566434722875936</v>
+      </c>
+      <c r="EU245">
+        <v>0.7738475448513571</v>
+      </c>
+      <c r="HB245">
+        <v>0.6213189317038408</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246">
@@ -16283,6 +17858,21 @@
       <c r="BD246">
         <v>-10.21429</v>
       </c>
+      <c r="ER246">
+        <v>-9.870760000000001</v>
+      </c>
+      <c r="ES246">
+        <v>5.84291</v>
+      </c>
+      <c r="ET246">
+        <v>0.05162518728463199</v>
+      </c>
+      <c r="EU246">
+        <v>0.7709963733593577</v>
+      </c>
+      <c r="HB246">
+        <v>0.09115106592821649</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247">
@@ -16341,6 +17931,21 @@
       <c r="BD247">
         <v>6.64286</v>
       </c>
+      <c r="ER247">
+        <v>6.11535</v>
+      </c>
+      <c r="ES247">
+        <v>7.82094</v>
+      </c>
+      <c r="ET247">
+        <v>-0.06303165144575731</v>
+      </c>
+      <c r="EU247">
+        <v>0.8733209652702472</v>
+      </c>
+      <c r="HB247">
+        <v>0.4342615456425956</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248">
@@ -16399,6 +18004,21 @@
       <c r="BD248">
         <v>3.78571</v>
       </c>
+      <c r="ER248">
+        <v>4.02587</v>
+      </c>
+      <c r="ES248">
+        <v>7.54107</v>
+      </c>
+      <c r="ET248">
+        <v>0.02973823026820877</v>
+      </c>
+      <c r="EU248">
+        <v>0.8719565299539852</v>
+      </c>
+      <c r="HB248">
+        <v>0.5934389148983522</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249">
@@ -16457,6 +18077,21 @@
       <c r="BD249">
         <v>4.71429</v>
       </c>
+      <c r="ER249">
+        <v>-2.87323</v>
+      </c>
+      <c r="ES249">
+        <v>5.65674</v>
+      </c>
+      <c r="ET249">
+        <v>-0.9387044613551702</v>
+      </c>
+      <c r="EU249">
+        <v>0.4897681077394362</v>
+      </c>
+      <c r="HB249">
+        <v>0.6115021805158494</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250">
@@ -16515,6 +18150,21 @@
       <c r="BD250">
         <v>3.64286</v>
       </c>
+      <c r="ER250">
+        <v>-2.3347</v>
+      </c>
+      <c r="ES250">
+        <v>8.17811</v>
+      </c>
+      <c r="ET250">
+        <v>-0.5902148251786919</v>
+      </c>
+      <c r="EU250">
+        <v>0.6520460005850661</v>
+      </c>
+      <c r="HB250">
+        <v>0.7752751924496009</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251">
@@ -16573,6 +18223,21 @@
       <c r="BD251">
         <v>-4.92857</v>
       </c>
+      <c r="ER251">
+        <v>-4.55553</v>
+      </c>
+      <c r="ES251">
+        <v>5.20017</v>
+      </c>
+      <c r="ET251">
+        <v>0.06394448910746144</v>
+      </c>
+      <c r="EU251">
+        <v>0.7945669961049304</v>
+      </c>
+      <c r="HB251">
+        <v>0.3810111036822817</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252">
@@ -16631,6 +18296,21 @@
       <c r="BD252">
         <v>-10.35714</v>
       </c>
+      <c r="ER252">
+        <v>-7.98074</v>
+      </c>
+      <c r="ES252">
+        <v>8.192909999999999</v>
+      </c>
+      <c r="ET252">
+        <v>0.2986650311559759</v>
+      </c>
+      <c r="EU252">
+        <v>1.060244514696007</v>
+      </c>
+      <c r="HB252">
+        <v>0.3300052916325649</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253">
@@ -16689,6 +18369,21 @@
       <c r="BD253">
         <v>-1.5</v>
       </c>
+      <c r="ER253">
+        <v>-0.48801</v>
+      </c>
+      <c r="ES253">
+        <v>5.74385</v>
+      </c>
+      <c r="ET253">
+        <v>0.1801232396873087</v>
+      </c>
+      <c r="EU253">
+        <v>1.045185164608786</v>
+      </c>
+      <c r="HB253">
+        <v>0.9322914603740962</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254">
@@ -16747,6 +18442,21 @@
       <c r="BD254">
         <v>-6.64286</v>
       </c>
+      <c r="ER254">
+        <v>-10.93455</v>
+      </c>
+      <c r="ES254">
+        <v>7.09422</v>
+      </c>
+      <c r="ET254">
+        <v>-0.6213725913195566</v>
+      </c>
+      <c r="EU254">
+        <v>1.055010547568996</v>
+      </c>
+      <c r="HB254">
+        <v>0.1232359462838265</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255">
@@ -16805,6 +18515,21 @@
       <c r="BD255">
         <v>-3.92857</v>
       </c>
+      <c r="ER255">
+        <v>-5.17121</v>
+      </c>
+      <c r="ES255">
+        <v>5.10322</v>
+      </c>
+      <c r="ET255">
+        <v>-0.2476256521236614</v>
+      </c>
+      <c r="EU255">
+        <v>1.034163459062797</v>
+      </c>
+      <c r="HB255">
+        <v>0.3109059237563706</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256">
@@ -16863,6 +18588,21 @@
       <c r="BD256">
         <v>-9.428570000000001</v>
       </c>
+      <c r="ER256">
+        <v>-16.88875</v>
+      </c>
+      <c r="ES256">
+        <v>5.39735</v>
+      </c>
+      <c r="ET256">
+        <v>-1.07517698196744</v>
+      </c>
+      <c r="EU256">
+        <v>0.6050934708368663</v>
+      </c>
+      <c r="HB256">
+        <v>0.001753534466639132</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257">
@@ -16921,6 +18661,21 @@
       <c r="BD257">
         <v>-4.83333</v>
       </c>
+      <c r="ER257">
+        <v>-5.20302</v>
+      </c>
+      <c r="ES257">
+        <v>1.89253</v>
+      </c>
+      <c r="ET257">
+        <v>-0.1948577663224808</v>
+      </c>
+      <c r="EU257">
+        <v>0.9950515453005074</v>
+      </c>
+      <c r="HB257">
+        <v>0.005973355214455917</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258">
@@ -16979,6 +18734,21 @@
       <c r="BD258">
         <v>-4.29167</v>
       </c>
+      <c r="ER258">
+        <v>-4.62245</v>
+      </c>
+      <c r="ES258">
+        <v>2.09737</v>
+      </c>
+      <c r="ET258">
+        <v>-0.1587921847246891</v>
+      </c>
+      <c r="EU258">
+        <v>1.013747662013601</v>
+      </c>
+      <c r="HB258">
+        <v>0.02752949084680484</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259">
@@ -17037,6 +18807,21 @@
       <c r="BD259">
         <v>-0.58333</v>
       </c>
+      <c r="ER259">
+        <v>-0.71635</v>
+      </c>
+      <c r="ES259">
+        <v>1.06002</v>
+      </c>
+      <c r="ET259">
+        <v>-0.08847238480366076</v>
+      </c>
+      <c r="EU259">
+        <v>0.4970610121453247</v>
+      </c>
+      <c r="HB259">
+        <v>0.4991745332449004</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260">
@@ -17095,6 +18880,21 @@
       <c r="BD260">
         <v>0.17714</v>
       </c>
+      <c r="ER260">
+        <v>0.10164</v>
+      </c>
+      <c r="ES260">
+        <v>0.34983</v>
+      </c>
+      <c r="ET260">
+        <v>-0.2233199242782773</v>
+      </c>
+      <c r="EU260">
+        <v>1.070718091217317</v>
+      </c>
+      <c r="HB260">
+        <v>0.7714022975540642</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261">
@@ -17153,6 +18953,21 @@
       <c r="BD261">
         <v>363.31629</v>
       </c>
+      <c r="ER261">
+        <v>236.53609</v>
+      </c>
+      <c r="ES261">
+        <v>261.07309</v>
+      </c>
+      <c r="ET261">
+        <v>-0.4227810955455423</v>
+      </c>
+      <c r="EU261">
+        <v>0.7579707966487738</v>
+      </c>
+      <c r="HB261">
+        <v>0.3649280055903582</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262">
@@ -17211,6 +19026,21 @@
       <c r="BD262">
         <v>-1.12991</v>
       </c>
+      <c r="ER262">
+        <v>-0.96274</v>
+      </c>
+      <c r="ES262">
+        <v>0.10043</v>
+      </c>
+      <c r="ET262">
+        <v>0.947031497847269</v>
+      </c>
+      <c r="EU262">
+        <v>0.3236973081406834</v>
+      </c>
+      <c r="HB262">
+        <v>9.140723424867817E-22</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263">
@@ -17269,6 +19099,21 @@
       <c r="BD263">
         <v>-0.36101</v>
       </c>
+      <c r="ER263">
+        <v>-0.1443</v>
+      </c>
+      <c r="ES263">
+        <v>0.11144</v>
+      </c>
+      <c r="ET263">
+        <v>1.232006822057987</v>
+      </c>
+      <c r="EU263">
+        <v>0.4013751934742497</v>
+      </c>
+      <c r="HB263">
+        <v>0.1953660475394266</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264">
@@ -17327,6 +19172,21 @@
       <c r="BD264">
         <v>-0.64514</v>
       </c>
+      <c r="ER264">
+        <v>-0.63315</v>
+      </c>
+      <c r="ES264">
+        <v>0.11436</v>
+      </c>
+      <c r="ET264">
+        <v>0.06839703365658902</v>
+      </c>
+      <c r="EU264">
+        <v>0.4255831857309887</v>
+      </c>
+      <c r="HB264">
+        <v>3.086395971041972E-08</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265">
@@ -17385,6 +19245,21 @@
       <c r="BD265">
         <v>-1.18562</v>
       </c>
+      <c r="ER265">
+        <v>-0.9976699999999999</v>
+      </c>
+      <c r="ES265">
+        <v>0.12654</v>
+      </c>
+      <c r="ET265">
+        <v>0.9677170219338891</v>
+      </c>
+      <c r="EU265">
+        <v>0.4244902902405946</v>
+      </c>
+      <c r="HB265">
+        <v>3.164901979759509E-15</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266">
@@ -17443,6 +19318,21 @@
       <c r="BD266">
         <v>-0.29114</v>
       </c>
+      <c r="ER266">
+        <v>-0.07527</v>
+      </c>
+      <c r="ES266">
+        <v>0.14208</v>
+      </c>
+      <c r="ET266">
+        <v>1.115376666322207</v>
+      </c>
+      <c r="EU266">
+        <v>0.5389201518011839</v>
+      </c>
+      <c r="HB266">
+        <v>0.5962700489325097</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267">
@@ -17501,6 +19391,21 @@
       <c r="BD267">
         <v>-0.60839</v>
       </c>
+      <c r="ER267">
+        <v>-0.6185</v>
+      </c>
+      <c r="ES267">
+        <v>0.14003</v>
+      </c>
+      <c r="ET267">
+        <v>-0.05241872764037986</v>
+      </c>
+      <c r="EU267">
+        <v>0.5271240322032755</v>
+      </c>
+      <c r="HB267">
+        <v>1.001215866877626E-05</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268">
@@ -17559,6 +19464,21 @@
       <c r="BD268">
         <v>-0.26778</v>
       </c>
+      <c r="ER268">
+        <v>-0.20887</v>
+      </c>
+      <c r="ES268">
+        <v>0.1023</v>
+      </c>
+      <c r="ET268">
+        <v>0.4886768975528827</v>
+      </c>
+      <c r="EU268">
+        <v>0.7201398401939403</v>
+      </c>
+      <c r="HB268">
+        <v>0.04117733067122851</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269">
@@ -17617,6 +19537,21 @@
       <c r="BD269">
         <v>-0.0842</v>
       </c>
+      <c r="ER269">
+        <v>-0.03939</v>
+      </c>
+      <c r="ES269">
+        <v>0.10274</v>
+      </c>
+      <c r="ET269">
+        <v>0.3730125697161408</v>
+      </c>
+      <c r="EU269">
+        <v>0.731435725285232</v>
+      </c>
+      <c r="HB269">
+        <v>0.7014269266576916</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270">
@@ -17675,6 +19610,21 @@
       <c r="BD270">
         <v>-0.17505</v>
       </c>
+      <c r="ER270">
+        <v>-0.133</v>
+      </c>
+      <c r="ES270">
+        <v>0.09624000000000001</v>
+      </c>
+      <c r="ET270">
+        <v>0.3512655584328795</v>
+      </c>
+      <c r="EU270">
+        <v>0.6463241252261676</v>
+      </c>
+      <c r="HB270">
+        <v>0.1669834422120603</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271">
@@ -17733,6 +19683,21 @@
       <c r="BD271">
         <v>0.08717</v>
       </c>
+      <c r="ER271">
+        <v>0.09092</v>
+      </c>
+      <c r="ES271">
+        <v>0.03779</v>
+      </c>
+      <c r="ET271">
+        <v>0.08658508427614876</v>
+      </c>
+      <c r="EU271">
+        <v>0.7613378413110317</v>
+      </c>
+      <c r="HB271">
+        <v>0.0161314659806677</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272">
@@ -17791,6 +19756,21 @@
       <c r="BD272">
         <v>0.03663</v>
       </c>
+      <c r="ER272">
+        <v>0.0221</v>
+      </c>
+      <c r="ES272">
+        <v>0.0359</v>
+      </c>
+      <c r="ET272">
+        <v>-0.3366543095458759</v>
+      </c>
+      <c r="EU272">
+        <v>0.6918724301927179</v>
+      </c>
+      <c r="HB272">
+        <v>0.5381592868375271</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273">
@@ -17849,6 +19829,21 @@
       <c r="BD273">
         <v>0.10557</v>
       </c>
+      <c r="ER273">
+        <v>0.06907000000000001</v>
+      </c>
+      <c r="ES273">
+        <v>0.03954</v>
+      </c>
+      <c r="ET273">
+        <v>-0.8486398511973957</v>
+      </c>
+      <c r="EU273">
+        <v>0.8451512630603796</v>
+      </c>
+      <c r="HB273">
+        <v>0.08066533114270398</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274">
@@ -17907,6 +19902,21 @@
       <c r="BD274">
         <v>-16.34828</v>
       </c>
+      <c r="ER274">
+        <v>-16.1899</v>
+      </c>
+      <c r="ES274">
+        <v>10.20238</v>
+      </c>
+      <c r="ET274">
+        <v>0.01517288156377032</v>
+      </c>
+      <c r="EU274">
+        <v>0.955297077295458</v>
+      </c>
+      <c r="HB274">
+        <v>0.1125409972122072</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275">
@@ -17965,6 +19975,21 @@
       <c r="BD275">
         <v>-0.04566</v>
       </c>
+      <c r="ER275">
+        <v>-0.04826</v>
+      </c>
+      <c r="ES275">
+        <v>0.03419</v>
+      </c>
+      <c r="ET275">
+        <v>-0.07482014388489203</v>
+      </c>
+      <c r="EU275">
+        <v>0.9680294808757308</v>
+      </c>
+      <c r="HB275">
+        <v>0.1580902119805243</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276">
@@ -18023,6 +20048,21 @@
       <c r="BD276">
         <v>-0.43438</v>
       </c>
+      <c r="ER276">
+        <v>-0.43452</v>
+      </c>
+      <c r="ES276">
+        <v>0.09855</v>
+      </c>
+      <c r="ET276">
+        <v>-0.001112347052280542</v>
+      </c>
+      <c r="EU276">
+        <v>0.6131091568477017</v>
+      </c>
+      <c r="HB276">
+        <v>1.037855534213623E-05</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277">
@@ -18081,6 +20121,21 @@
       <c r="BD277">
         <v>-0.4458</v>
       </c>
+      <c r="ER277">
+        <v>-0.39247</v>
+      </c>
+      <c r="ES277">
+        <v>0.08069999999999999</v>
+      </c>
+      <c r="ET277">
+        <v>0.5132326051390625</v>
+      </c>
+      <c r="EU277">
+        <v>0.6031597878730307</v>
+      </c>
+      <c r="HB277">
+        <v>1.154324501542382E-06</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278">
@@ -18139,6 +20194,21 @@
       <c r="BD278">
         <v>-0.0571</v>
       </c>
+      <c r="ER278">
+        <v>-0.04273</v>
+      </c>
+      <c r="ES278">
+        <v>0.03729</v>
+      </c>
+      <c r="ET278">
+        <v>0.2575268817204301</v>
+      </c>
+      <c r="EU278">
+        <v>0.4465975835356688</v>
+      </c>
+      <c r="HB278">
+        <v>0.2518433117210228</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279">
@@ -18197,6 +20267,21 @@
       <c r="BD279">
         <v>-0.30865</v>
       </c>
+      <c r="ER279">
+        <v>-0.31283</v>
+      </c>
+      <c r="ES279">
+        <v>0.07672</v>
+      </c>
+      <c r="ET279">
+        <v>-0.05464766636161612</v>
+      </c>
+      <c r="EU279">
+        <v>1.006022899642729</v>
+      </c>
+      <c r="HB279">
+        <v>4.551181618602592E-05</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280">
@@ -18255,6 +20340,21 @@
       <c r="BD280">
         <v>0.54738</v>
       </c>
+      <c r="ER280">
+        <v>0.67231</v>
+      </c>
+      <c r="ES280">
+        <v>0.16111</v>
+      </c>
+      <c r="ET280">
+        <v>0.5315039353329079</v>
+      </c>
+      <c r="EU280">
+        <v>0.4698124098476696</v>
+      </c>
+      <c r="HB280">
+        <v>3.006315734899149E-05</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281">
@@ -18313,6 +20413,21 @@
       <c r="BD281">
         <v>0.39015</v>
       </c>
+      <c r="ER281">
+        <v>0.50064</v>
+      </c>
+      <c r="ES281">
+        <v>0.15507</v>
+      </c>
+      <c r="ET281">
+        <v>0.5266444232602477</v>
+      </c>
+      <c r="EU281">
+        <v>0.5463168631253518</v>
+      </c>
+      <c r="HB281">
+        <v>0.001244510651454549</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282">
@@ -18371,6 +20486,21 @@
       <c r="BD282">
         <v>0.28337</v>
       </c>
+      <c r="ER282">
+        <v>0.34041</v>
+      </c>
+      <c r="ES282">
+        <v>0.12929</v>
+      </c>
+      <c r="ET282">
+        <v>0.3486552567237163</v>
+      </c>
+      <c r="EU282">
+        <v>0.6245443333373185</v>
+      </c>
+      <c r="HB282">
+        <v>0.008465472164628838</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283">
@@ -18429,6 +20559,21 @@
       <c r="BD283">
         <v>0.2812</v>
       </c>
+      <c r="ER283">
+        <v>0.37239</v>
+      </c>
+      <c r="ES283">
+        <v>0.11692</v>
+      </c>
+      <c r="ET283">
+        <v>0.6324294333865038</v>
+      </c>
+      <c r="EU283">
+        <v>0.657517520490753</v>
+      </c>
+      <c r="HB283">
+        <v>0.001447548638820543</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284">
@@ -18487,6 +20632,21 @@
       <c r="BD284">
         <v>0.37124</v>
       </c>
+      <c r="ER284">
+        <v>0.3523</v>
+      </c>
+      <c r="ES284">
+        <v>0.14009</v>
+      </c>
+      <c r="ET284">
+        <v>-0.1173191278493559</v>
+      </c>
+      <c r="EU284">
+        <v>0.7529947925619376</v>
+      </c>
+      <c r="HB284">
+        <v>0.01190959038816306</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285">
@@ -18545,6 +20705,21 @@
       <c r="BD285">
         <v>0.23951</v>
       </c>
+      <c r="ER285">
+        <v>0.24998</v>
+      </c>
+      <c r="ES285">
+        <v>0.15105</v>
+      </c>
+      <c r="ET285">
+        <v>0.05883675189660021</v>
+      </c>
+      <c r="EU285">
+        <v>0.7205190612925562</v>
+      </c>
+      <c r="HB285">
+        <v>0.09793490591896302</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286">
@@ -18603,6 +20778,21 @@
       <c r="BD286">
         <v>-0.02157</v>
       </c>
+      <c r="ER286">
+        <v>-0.09827</v>
+      </c>
+      <c r="ES286">
+        <v>0.8368100000000001</v>
+      </c>
+      <c r="ET286">
+        <v>-0.09359365466748015</v>
+      </c>
+      <c r="EU286">
+        <v>1.042691437248192</v>
+      </c>
+      <c r="HB286">
+        <v>0.9065160907887994</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287">
@@ -18661,6 +20851,21 @@
       <c r="BD287">
         <v>-0.10588</v>
       </c>
+      <c r="ER287">
+        <v>-0.008229999999999999</v>
+      </c>
+      <c r="ES287">
+        <v>0.2581</v>
+      </c>
+      <c r="ET287">
+        <v>0.3355208905992303</v>
+      </c>
+      <c r="EU287">
+        <v>0.7864491468634329</v>
+      </c>
+      <c r="HB287">
+        <v>0.9745622730824187</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288">
@@ -18719,6 +20924,21 @@
       <c r="BD288">
         <v>-0.81216</v>
       </c>
+      <c r="ER288">
+        <v>-0.79963</v>
+      </c>
+      <c r="ES288">
+        <v>0.30473</v>
+      </c>
+      <c r="ET288">
+        <v>0.0323705693913404</v>
+      </c>
+      <c r="EU288">
+        <v>0.6197677284067037</v>
+      </c>
+      <c r="HB288">
+        <v>0.008688831295937442</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289">
@@ -18777,6 +20997,21 @@
       <c r="BD289">
         <v>-1.12078</v>
       </c>
+      <c r="ER289">
+        <v>-1.06956</v>
+      </c>
+      <c r="ES289">
+        <v>0.42158</v>
+      </c>
+      <c r="ET289">
+        <v>0.1133210911745836</v>
+      </c>
+      <c r="EU289">
+        <v>0.8699661328551785</v>
+      </c>
+      <c r="HB289">
+        <v>0.01117982121402402</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290">
@@ -18835,6 +21070,21 @@
       <c r="BD290">
         <v>-1.04157</v>
       </c>
+      <c r="ER290">
+        <v>-1.06145</v>
+      </c>
+      <c r="ES290">
+        <v>0.43538</v>
+      </c>
+      <c r="ET290">
+        <v>-0.04299307958477487</v>
+      </c>
+      <c r="EU290">
+        <v>0.8865460501700171</v>
+      </c>
+      <c r="HB290">
+        <v>0.01476937833963872</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291">
@@ -18893,6 +21143,21 @@
       <c r="BD291">
         <v>-0.68275</v>
       </c>
+      <c r="ER291">
+        <v>-0.69274</v>
+      </c>
+      <c r="ES291">
+        <v>0.38234</v>
+      </c>
+      <c r="ET291">
+        <v>-0.02406649000240919</v>
+      </c>
+      <c r="EU291">
+        <v>0.8483869995364696</v>
+      </c>
+      <c r="HB291">
+        <v>0.07001048009925122</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292">
@@ -18951,6 +21216,21 @@
       <c r="BD292">
         <v>-0.64353</v>
       </c>
+      <c r="ER292">
+        <v>-0.63267</v>
+      </c>
+      <c r="ES292">
+        <v>0.2875</v>
+      </c>
+      <c r="ET292">
+        <v>0.02811286564845998</v>
+      </c>
+      <c r="EU292">
+        <v>0.5538935166791096</v>
+      </c>
+      <c r="HB292">
+        <v>0.0277649697430418</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293">
@@ -19009,6 +21289,21 @@
       <c r="BD293">
         <v>-0.6349</v>
       </c>
+      <c r="ER293">
+        <v>-0.58529</v>
+      </c>
+      <c r="ES293">
+        <v>0.2742</v>
+      </c>
+      <c r="ET293">
+        <v>0.1680441704491567</v>
+      </c>
+      <c r="EU293">
+        <v>0.8626673258030705</v>
+      </c>
+      <c r="HB293">
+        <v>0.03279886179459657</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294">
@@ -19067,6 +21362,21 @@
       <c r="BD294">
         <v>-0.58667</v>
       </c>
+      <c r="ER294">
+        <v>-0.5875</v>
+      </c>
+      <c r="ES294">
+        <v>0.26792</v>
+      </c>
+      <c r="ET294">
+        <v>-0.002770452952368228</v>
+      </c>
+      <c r="EU294">
+        <v>0.7997525677027582</v>
+      </c>
+      <c r="HB294">
+        <v>0.02832044034211572</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295">
@@ -19125,6 +21435,21 @@
       <c r="BD295">
         <v>-0.62824</v>
       </c>
+      <c r="ER295">
+        <v>-0.59854</v>
+      </c>
+      <c r="ES295">
+        <v>0.19544</v>
+      </c>
+      <c r="ET295">
+        <v>0.1218011811023624</v>
+      </c>
+      <c r="EU295">
+        <v>0.642416975806174</v>
+      </c>
+      <c r="HB295">
+        <v>0.002194777136235815</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296">
@@ -19241,6 +21566,21 @@
       <c r="BD297">
         <v>345.31858</v>
       </c>
+      <c r="ER297">
+        <v>415.84492</v>
+      </c>
+      <c r="ES297">
+        <v>170.03051</v>
+      </c>
+      <c r="ET297">
+        <v>0.3814680320177169</v>
+      </c>
+      <c r="EU297">
+        <v>0.8457992965979666</v>
+      </c>
+      <c r="HB297">
+        <v>0.01445681704804925</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298">
@@ -19299,6 +21639,21 @@
       <c r="BD298">
         <v>2.0875</v>
       </c>
+      <c r="ER298">
+        <v>2.72001</v>
+      </c>
+      <c r="ES298">
+        <v>1.06676</v>
+      </c>
+      <c r="ET298">
+        <v>0.4805029057621453</v>
+      </c>
+      <c r="EU298">
+        <v>0.656735797972102</v>
+      </c>
+      <c r="HB298">
+        <v>0.01077889772610226</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299">
@@ -19357,6 +21712,21 @@
       <c r="BD299">
         <v>0.00104</v>
       </c>
+      <c r="ER299">
+        <v>0.00582</v>
+      </c>
+      <c r="ES299">
+        <v>0.00527</v>
+      </c>
+      <c r="ET299">
+        <v>0.718796992481203</v>
+      </c>
+      <c r="EU299">
+        <v>0.6280264571202444</v>
+      </c>
+      <c r="HB299">
+        <v>0.2694351290637322</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300">
@@ -19415,6 +21785,21 @@
       <c r="BD300">
         <v>0.00072</v>
       </c>
+      <c r="ER300">
+        <v>1E-05</v>
+      </c>
+      <c r="ES300">
+        <v>0.0058</v>
+      </c>
+      <c r="ET300">
+        <v>-0.1014285714285714</v>
+      </c>
+      <c r="EU300">
+        <v>0.6865306122448979</v>
+      </c>
+      <c r="HB300">
+        <v>0.9986243376456938</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301">
@@ -19473,6 +21858,21 @@
       <c r="BD301">
         <v>0.00207</v>
       </c>
+      <c r="ER301">
+        <v>0.00418</v>
+      </c>
+      <c r="ES301">
+        <v>0.00349</v>
+      </c>
+      <c r="ET301">
+        <v>0.4065510597302505</v>
+      </c>
+      <c r="EU301">
+        <v>0.4521849859482256</v>
+      </c>
+      <c r="HB301">
+        <v>0.231030816454889</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302">
@@ -19531,6 +21931,21 @@
       <c r="BD302">
         <v>0.28417</v>
       </c>
+      <c r="ER302">
+        <v>0.78584</v>
+      </c>
+      <c r="ES302">
+        <v>0.7220299999999999</v>
+      </c>
+      <c r="ET302">
+        <v>0.6122556078986552</v>
+      </c>
+      <c r="EU302">
+        <v>0.7764969728384082</v>
+      </c>
+      <c r="HB302">
+        <v>0.276429227121566</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303">
@@ -19589,6 +22004,21 @@
       <c r="BD303">
         <v>8.160030000000001</v>
       </c>
+      <c r="ER303">
+        <v>3.95993</v>
+      </c>
+      <c r="ES303">
+        <v>4.57553</v>
+      </c>
+      <c r="ET303">
+        <v>-0.7768152074602078</v>
+      </c>
+      <c r="EU303">
+        <v>0.716141746739738</v>
+      </c>
+      <c r="HB303">
+        <v>0.386787343902057</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304">
@@ -19647,6 +22077,21 @@
       <c r="BD304">
         <v>0.22223</v>
       </c>
+      <c r="ER304">
+        <v>-1.3576</v>
+      </c>
+      <c r="ES304">
+        <v>3.11795</v>
+      </c>
+      <c r="ET304">
+        <v>-0.4635760229113359</v>
+      </c>
+      <c r="EU304">
+        <v>0.8370656306042049</v>
+      </c>
+      <c r="HB304">
+        <v>0.6632617363525775</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305">
@@ -19705,6 +22150,21 @@
       <c r="BD305">
         <v>4.95391</v>
       </c>
+      <c r="ER305">
+        <v>9.11651</v>
+      </c>
+      <c r="ES305">
+        <v>2.29437</v>
+      </c>
+      <c r="ET305">
+        <v>0.9246400376733174</v>
+      </c>
+      <c r="EU305">
+        <v>0.2597424547951473</v>
+      </c>
+      <c r="HB305">
+        <v>7.084609910207079E-05</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306">
@@ -19763,6 +22223,21 @@
       <c r="BD306">
         <v>-38.95924</v>
       </c>
+      <c r="ER306">
+        <v>-32.75489</v>
+      </c>
+      <c r="ES306">
+        <v>50.13124</v>
+      </c>
+      <c r="ET306">
+        <v>0.08523701050386599</v>
+      </c>
+      <c r="EU306">
+        <v>0.4743301539956742</v>
+      </c>
+      <c r="HB306">
+        <v>0.5135095240073956</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307">
@@ -20351,6 +22826,21 @@
       <c r="BD317">
         <v>0.0278</v>
       </c>
+      <c r="ER317">
+        <v>0.02954</v>
+      </c>
+      <c r="ES317">
+        <v>0.01265</v>
+      </c>
+      <c r="ET317">
+        <v>0.1356196414653158</v>
+      </c>
+      <c r="EU317">
+        <v>0.9721375940183065</v>
+      </c>
+      <c r="HB317">
+        <v>0.01953413093959722</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318">
@@ -20409,6 +22899,21 @@
       <c r="BD318">
         <v>0.02318</v>
       </c>
+      <c r="ER318">
+        <v>0.0261</v>
+      </c>
+      <c r="ES318">
+        <v>0.01254</v>
+      </c>
+      <c r="ET318">
+        <v>0.2275915822291506</v>
+      </c>
+      <c r="EU318">
+        <v>0.9553043608213166</v>
+      </c>
+      <c r="HB318">
+        <v>0.03740282260571298</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319">
@@ -20467,6 +22972,21 @@
       <c r="BD319">
         <v>0.05778</v>
       </c>
+      <c r="ER319">
+        <v>0.05402</v>
+      </c>
+      <c r="ES319">
+        <v>0.07996</v>
+      </c>
+      <c r="ET319">
+        <v>-0.04733727810650887</v>
+      </c>
+      <c r="EU319">
+        <v>1.013389606536399</v>
+      </c>
+      <c r="HB319">
+        <v>0.4993023933746977</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320">
@@ -20525,6 +23045,21 @@
       <c r="BD320">
         <v>0.04235</v>
       </c>
+      <c r="ER320">
+        <v>0.02788</v>
+      </c>
+      <c r="ES320">
+        <v>0.0738</v>
+      </c>
+      <c r="ET320">
+        <v>-0.203316003934242</v>
+      </c>
+      <c r="EU320">
+        <v>1.075273126627624</v>
+      </c>
+      <c r="HB320">
+        <v>0.705595683272677</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321">
@@ -20583,6 +23118,21 @@
       <c r="BD321">
         <v>0.04402</v>
       </c>
+      <c r="ER321">
+        <v>0.20112</v>
+      </c>
+      <c r="ES321">
+        <v>0.35698</v>
+      </c>
+      <c r="ET321">
+        <v>0.4202220141768088</v>
+      </c>
+      <c r="EU321">
+        <v>0.9117861698437735</v>
+      </c>
+      <c r="HB321">
+        <v>0.5731673659321876</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322">
@@ -20641,6 +23191,21 @@
       <c r="BD322">
         <v>-0.00151</v>
       </c>
+      <c r="ER322">
+        <v>0.00377</v>
+      </c>
+      <c r="ES322">
+        <v>0.01882</v>
+      </c>
+      <c r="ET322">
+        <v>0.2721649484536082</v>
+      </c>
+      <c r="EU322">
+        <v>0.941100010628122</v>
+      </c>
+      <c r="HB322">
+        <v>0.8412312526069419</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323">
@@ -20699,6 +23264,21 @@
       <c r="BD323">
         <v>0.61412</v>
       </c>
+      <c r="ER323">
+        <v>0.5848100000000001</v>
+      </c>
+      <c r="ES323">
+        <v>1.03143</v>
+      </c>
+      <c r="ET323">
+        <v>-0.02936932603859791</v>
+      </c>
+      <c r="EU323">
+        <v>1.068158848131086</v>
+      </c>
+      <c r="HB323">
+        <v>0.5707213022196833</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324">
@@ -20863,6 +23443,21 @@
       <c r="BD326">
         <v>-0.40191</v>
       </c>
+      <c r="ER326">
+        <v>-0.47554</v>
+      </c>
+      <c r="ES326">
+        <v>0.11554</v>
+      </c>
+      <c r="ET326">
+        <v>-0.4969292029425662</v>
+      </c>
+      <c r="EU326">
+        <v>0.6080568210337589</v>
+      </c>
+      <c r="HB326">
+        <v>3.858319977810429E-05</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327">
@@ -20921,6 +23516,21 @@
       <c r="BD327">
         <v>-0.51634</v>
       </c>
+      <c r="ER327">
+        <v>-0.59763</v>
+      </c>
+      <c r="ES327">
+        <v>0.17325</v>
+      </c>
+      <c r="ET327">
+        <v>-0.4288351972990081</v>
+      </c>
+      <c r="EU327">
+        <v>0.8353203975746678</v>
+      </c>
+      <c r="HB327">
+        <v>0.000561576205630008</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328">
@@ -20979,6 +23589,21 @@
       <c r="BD328">
         <v>-0.77624</v>
       </c>
+      <c r="ER328">
+        <v>-0.9409</v>
+      </c>
+      <c r="ES328">
+        <v>0.35108</v>
+      </c>
+      <c r="ET328">
+        <v>-0.4903367975938773</v>
+      </c>
+      <c r="EU328">
+        <v>1.093011999666811</v>
+      </c>
+      <c r="HB328">
+        <v>0.007361865206404736</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329">
@@ -21037,6 +23662,21 @@
       <c r="BD329">
         <v>-0.7563</v>
       </c>
+      <c r="ER329">
+        <v>-1.02101</v>
+      </c>
+      <c r="ES329">
+        <v>0.43511</v>
+      </c>
+      <c r="ET329">
+        <v>-0.468314344349303</v>
+      </c>
+      <c r="EU329">
+        <v>0.592560030349476</v>
+      </c>
+      <c r="HB329">
+        <v>0.01894781644589792</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330">
@@ -21095,6 +23735,21 @@
       <c r="BD330">
         <v>0.14717</v>
       </c>
+      <c r="ER330">
+        <v>0.11875</v>
+      </c>
+      <c r="ES330">
+        <v>0.08309999999999999</v>
+      </c>
+      <c r="ET330">
+        <v>-0.2762173194673924</v>
+      </c>
+      <c r="EU330">
+        <v>0.6523125184925598</v>
+      </c>
+      <c r="HB330">
+        <v>0.1530038875642788</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331">
@@ -21153,6 +23808,21 @@
       <c r="BD331">
         <v>0.30316</v>
       </c>
+      <c r="ER331">
+        <v>0.31107</v>
+      </c>
+      <c r="ES331">
+        <v>0.13425</v>
+      </c>
+      <c r="ET331">
+        <v>0.04539975893933323</v>
+      </c>
+      <c r="EU331">
+        <v>0.5937214172908266</v>
+      </c>
+      <c r="HB331">
+        <v>0.02049855884886567</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332">
@@ -21211,6 +23881,21 @@
       <c r="BD332">
         <v>0.73228</v>
       </c>
+      <c r="ER332">
+        <v>0.76127</v>
+      </c>
+      <c r="ES332">
+        <v>0.29281</v>
+      </c>
+      <c r="ET332">
+        <v>0.0773479188900746</v>
+      </c>
+      <c r="EU332">
+        <v>0.6103411403193052</v>
+      </c>
+      <c r="HB332">
+        <v>0.009325716541645903</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333">
@@ -21269,6 +23954,21 @@
       <c r="BD333">
         <v>0.79036</v>
       </c>
+      <c r="ER333">
+        <v>0.66892</v>
+      </c>
+      <c r="ES333">
+        <v>0.31226</v>
+      </c>
+      <c r="ET333">
+        <v>-0.2515483563601715</v>
+      </c>
+      <c r="EU333">
+        <v>0.4183619335804801</v>
+      </c>
+      <c r="HB333">
+        <v>0.03217826012574564</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334">
@@ -21327,6 +24027,21 @@
       <c r="BD334">
         <v>-0.04651</v>
       </c>
+      <c r="ER334">
+        <v>-0.25463</v>
+      </c>
+      <c r="ES334">
+        <v>0.50531</v>
+      </c>
+      <c r="ET334">
+        <v>-0.384837278106509</v>
+      </c>
+      <c r="EU334">
+        <v>0.8730566406250003</v>
+      </c>
+      <c r="HB334">
+        <v>0.6143256829296566</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335">
@@ -21385,6 +24100,21 @@
       <c r="BD335">
         <v>0.03114</v>
       </c>
+      <c r="ER335">
+        <v>-0.67705</v>
+      </c>
+      <c r="ES335">
+        <v>0.52988</v>
+      </c>
+      <c r="ET335">
+        <v>-1.213194230308014</v>
+      </c>
+      <c r="EU335">
+        <v>0.8239790082691705</v>
+      </c>
+      <c r="HB335">
+        <v>0.2013403649869315</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336">
@@ -21443,6 +24173,21 @@
       <c r="BD336">
         <v>-0.09341000000000001</v>
       </c>
+      <c r="ER336">
+        <v>-0.53532</v>
+      </c>
+      <c r="ES336">
+        <v>0.54055</v>
+      </c>
+      <c r="ET336">
+        <v>-0.7085751851970625</v>
+      </c>
+      <c r="EU336">
+        <v>0.7512352579559604</v>
+      </c>
+      <c r="HB336">
+        <v>0.3220154524280823</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337">
@@ -21501,6 +24246,21 @@
       <c r="BD337">
         <v>0.5</v>
       </c>
+      <c r="ER337">
+        <v>-0.20934</v>
+      </c>
+      <c r="ES337">
+        <v>0.54569</v>
+      </c>
+      <c r="ET337">
+        <v>-1.117334803496889</v>
+      </c>
+      <c r="EU337">
+        <v>0.7388388822200708</v>
+      </c>
+      <c r="HB337">
+        <v>0.7012568510839785</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338">
@@ -21559,6 +24319,21 @@
       <c r="BD338">
         <v>-0.24</v>
       </c>
+      <c r="ER338">
+        <v>-0.33425</v>
+      </c>
+      <c r="ES338">
+        <v>0.06486</v>
+      </c>
+      <c r="ET338">
+        <v>-0.9425</v>
+      </c>
+      <c r="EU338">
+        <v>0.42068196</v>
+      </c>
+      <c r="HB338">
+        <v>2.557954964410532E-07</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339">
@@ -21617,6 +24392,21 @@
       <c r="BD339">
         <v>0.89474</v>
       </c>
+      <c r="ER339">
+        <v>0.91193</v>
+      </c>
+      <c r="ES339">
+        <v>0.39039</v>
+      </c>
+      <c r="ET339">
+        <v>0.02503714060997996</v>
+      </c>
+      <c r="EU339">
+        <v>0.3233069736720346</v>
+      </c>
+      <c r="HB339">
+        <v>0.01949405061801759</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340">
@@ -21675,6 +24465,21 @@
       <c r="BD340">
         <v>-0.67857</v>
       </c>
+      <c r="ER340">
+        <v>-1.44607</v>
+      </c>
+      <c r="ES340">
+        <v>0.54725</v>
+      </c>
+      <c r="ET340">
+        <v>-0.8964236492326378</v>
+      </c>
+      <c r="EU340">
+        <v>0.4085463954355721</v>
+      </c>
+      <c r="HB340">
+        <v>0.008231339725738683</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341">
@@ -21733,6 +24538,21 @@
       <c r="BD341">
         <v>0.43007</v>
       </c>
+      <c r="ER341">
+        <v>0.24746</v>
+      </c>
+      <c r="ES341">
+        <v>0.18839</v>
+      </c>
+      <c r="ET341">
+        <v>-0.6836765256458255</v>
+      </c>
+      <c r="EU341">
+        <v>0.4974711689722845</v>
+      </c>
+      <c r="HB341">
+        <v>0.1889971203551135</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342">
@@ -21791,6 +24611,21 @@
       <c r="BD342">
         <v>0.20979</v>
       </c>
+      <c r="ER342">
+        <v>0.2572</v>
+      </c>
+      <c r="ES342">
+        <v>0.25048</v>
+      </c>
+      <c r="ET342">
+        <v>0.1594256506826282</v>
+      </c>
+      <c r="EU342">
+        <v>0.7094513100197618</v>
+      </c>
+      <c r="HB342">
+        <v>0.304501231841386</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343">
@@ -21849,6 +24684,21 @@
       <c r="BD343">
         <v>0.18881</v>
       </c>
+      <c r="ER343">
+        <v>0.0022</v>
+      </c>
+      <c r="ES343">
+        <v>0.17884</v>
+      </c>
+      <c r="ET343">
+        <v>-0.7625761104981407</v>
+      </c>
+      <c r="EU343">
+        <v>0.5341040711429742</v>
+      </c>
+      <c r="HB343">
+        <v>0.9901850717796052</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344">
@@ -21907,6 +24757,21 @@
       <c r="BD344">
         <v>0.09440999999999999</v>
       </c>
+      <c r="ER344">
+        <v>0.07484</v>
+      </c>
+      <c r="ES344">
+        <v>0.18813</v>
+      </c>
+      <c r="ET344">
+        <v>-0.09723257316043121</v>
+      </c>
+      <c r="EU344">
+        <v>0.8736913134018123</v>
+      </c>
+      <c r="HB344">
+        <v>0.6907702269973111</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345">
@@ -21965,6 +24830,21 @@
       <c r="BD345">
         <v>0.45455</v>
       </c>
+      <c r="ER345">
+        <v>0.29954</v>
+      </c>
+      <c r="ES345">
+        <v>0.28151</v>
+      </c>
+      <c r="ET345">
+        <v>-0.5160807031562127</v>
+      </c>
+      <c r="EU345">
+        <v>0.8784225221295681</v>
+      </c>
+      <c r="HB345">
+        <v>0.287307200942431</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346">
@@ -22023,6 +24903,21 @@
       <c r="BD346">
         <v>-0.43357</v>
       </c>
+      <c r="ER346">
+        <v>-0.43741</v>
+      </c>
+      <c r="ES346">
+        <v>0.15257</v>
+      </c>
+      <c r="ET346">
+        <v>-0.02453674121405757</v>
+      </c>
+      <c r="EU346">
+        <v>0.9504069613857447</v>
+      </c>
+      <c r="HB346">
+        <v>0.004144533045075994</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347">
@@ -22081,6 +24976,21 @@
       <c r="BD347">
         <v>-0.08042000000000001</v>
       </c>
+      <c r="ER347">
+        <v>0.0008899999999999999</v>
+      </c>
+      <c r="ES347">
+        <v>0.1522</v>
+      </c>
+      <c r="ET347">
+        <v>0.456361901554695</v>
+      </c>
+      <c r="EU347">
+        <v>0.7297265452715254</v>
+      </c>
+      <c r="HB347">
+        <v>0.9953343415757583</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348">
@@ -22139,6 +25049,21 @@
       <c r="BD348">
         <v>0.36713</v>
       </c>
+      <c r="ER348">
+        <v>0.41093</v>
+      </c>
+      <c r="ES348">
+        <v>0.2292</v>
+      </c>
+      <c r="ET348">
+        <v>0.1728287890147181</v>
+      </c>
+      <c r="EU348">
+        <v>0.8179244288855657</v>
+      </c>
+      <c r="HB348">
+        <v>0.07299078538245531</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349">
@@ -22197,6 +25122,21 @@
       <c r="BD349">
         <v>0.14336</v>
       </c>
+      <c r="ER349">
+        <v>0.04419</v>
+      </c>
+      <c r="ES349">
+        <v>0.23334</v>
+      </c>
+      <c r="ET349">
+        <v>-0.3069043419057345</v>
+      </c>
+      <c r="EU349">
+        <v>0.521463392647817</v>
+      </c>
+      <c r="HB349">
+        <v>0.849794760729194</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350">
@@ -22255,6 +25195,21 @@
       <c r="BD350">
         <v>-1.24476</v>
       </c>
+      <c r="ER350">
+        <v>-1.44152</v>
+      </c>
+      <c r="ES350">
+        <v>0.39469</v>
+      </c>
+      <c r="ET350">
+        <v>-0.5312238451362074</v>
+      </c>
+      <c r="EU350">
+        <v>1.135517261549607</v>
+      </c>
+      <c r="HB350">
+        <v>0.0002599181276303993</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351">
@@ -22313,6 +25268,21 @@
       <c r="BD351">
         <v>-37.31469</v>
       </c>
+      <c r="ER351">
+        <v>-42.46548</v>
+      </c>
+      <c r="ES351">
+        <v>15.96157</v>
+      </c>
+      <c r="ET351">
+        <v>-0.296631531299617</v>
+      </c>
+      <c r="EU351">
+        <v>0.8449638976296645</v>
+      </c>
+      <c r="HB351">
+        <v>0.007802874799797749</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352">
@@ -22371,6 +25341,21 @@
       <c r="BD352">
         <v>0.23077</v>
       </c>
+      <c r="ER352">
+        <v>0.19795</v>
+      </c>
+      <c r="ES352">
+        <v>0.13846</v>
+      </c>
+      <c r="ET352">
+        <v>-0.2358436332279392</v>
+      </c>
+      <c r="EU352">
+        <v>0.9899649405487247</v>
+      </c>
+      <c r="HB352">
+        <v>0.1528161265534489</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353">
@@ -22429,6 +25414,21 @@
       <c r="BD353">
         <v>0.32517</v>
       </c>
+      <c r="ER353">
+        <v>0.32897</v>
+      </c>
+      <c r="ES353">
+        <v>0.12933</v>
+      </c>
+      <c r="ET353">
+        <v>0.0295696832931287</v>
+      </c>
+      <c r="EU353">
+        <v>1.012802367735147</v>
+      </c>
+      <c r="HB353">
+        <v>0.0109701562245552</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354">
@@ -22487,6 +25487,21 @@
       <c r="BD354">
         <v>19.82168</v>
       </c>
+      <c r="ER354">
+        <v>13.46998</v>
+      </c>
+      <c r="ES354">
+        <v>4.51586</v>
+      </c>
+      <c r="ET354">
+        <v>-0.6333339648359407</v>
+      </c>
+      <c r="EU354">
+        <v>0.2027526515482861</v>
+      </c>
+      <c r="HB354">
+        <v>0.002856095308872706</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355">
@@ -22545,6 +25560,21 @@
       <c r="BD355">
         <v>9.11224</v>
       </c>
+      <c r="ER355">
+        <v>4.71143</v>
+      </c>
+      <c r="ES355">
+        <v>2.8609</v>
+      </c>
+      <c r="ET355">
+        <v>-0.7041566396149612</v>
+      </c>
+      <c r="EU355">
+        <v>0.2095456623338796</v>
+      </c>
+      <c r="HB355">
+        <v>0.09959198325289041</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356">
@@ -22603,6 +25633,21 @@
       <c r="BD356">
         <v>3.9021</v>
       </c>
+      <c r="ER356">
+        <v>1.22026</v>
+      </c>
+      <c r="ES356">
+        <v>0.61334</v>
+      </c>
+      <c r="ET356">
+        <v>-0.9198496323125893</v>
+      </c>
+      <c r="EU356">
+        <v>0.04425583383367775</v>
+      </c>
+      <c r="HB356">
+        <v>0.04664243370533959</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357">
@@ -22661,6 +25706,21 @@
       <c r="BD357">
         <v>10.23427</v>
       </c>
+      <c r="ER357">
+        <v>6.02047</v>
+      </c>
+      <c r="ES357">
+        <v>1.58531</v>
+      </c>
+      <c r="ET357">
+        <v>-0.6576971702383367</v>
+      </c>
+      <c r="EU357">
+        <v>0.06122552350870451</v>
+      </c>
+      <c r="HB357">
+        <v>0.0001460678868706091</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358">
@@ -22719,6 +25779,21 @@
       <c r="BD358">
         <v>-11.80236</v>
       </c>
+      <c r="ER358">
+        <v>-8.3697</v>
+      </c>
+      <c r="ES358">
+        <v>0.94281</v>
+      </c>
+      <c r="ET358">
+        <v>0.9090586484324932</v>
+      </c>
+      <c r="EU358">
+        <v>0.06234054398881608</v>
+      </c>
+      <c r="HB358">
+        <v>6.844229630731032E-19</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359">
@@ -22777,6 +25852,21 @@
       <c r="BD359">
         <v>-0.66315</v>
       </c>
+      <c r="ER359">
+        <v>-0.67178</v>
+      </c>
+      <c r="ES359">
+        <v>0.04826</v>
+      </c>
+      <c r="ET359">
+        <v>-0.1784532671629451</v>
+      </c>
+      <c r="EU359">
+        <v>0.9958686266018371</v>
+      </c>
+      <c r="HB359">
+        <v>4.787930404025663E-44</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360">
@@ -22835,6 +25925,21 @@
       <c r="BD360">
         <v>-0.26446</v>
       </c>
+      <c r="ER360">
+        <v>-0.28003</v>
+      </c>
+      <c r="ES360">
+        <v>0.08268</v>
+      </c>
+      <c r="ET360">
+        <v>-0.1857773535377643</v>
+      </c>
+      <c r="EU360">
+        <v>0.9732160321211093</v>
+      </c>
+      <c r="HB360">
+        <v>0.0007068369542746871</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361">
@@ -22893,6 +25998,21 @@
       <c r="BD361">
         <v>-52.3962</v>
       </c>
+      <c r="ER361">
+        <v>-56.39867</v>
+      </c>
+      <c r="ES361">
+        <v>14.84534</v>
+      </c>
+      <c r="ET361">
+        <v>-0.2584187687359049</v>
+      </c>
+      <c r="EU361">
+        <v>0.9186968604592374</v>
+      </c>
+      <c r="HB361">
+        <v>0.0001452328006469616</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362">
@@ -22951,6 +26071,21 @@
       <c r="BD362">
         <v>0.7927999999999999</v>
       </c>
+      <c r="ER362">
+        <v>0.64001</v>
+      </c>
+      <c r="ES362">
+        <v>0.74771</v>
+      </c>
+      <c r="ET362">
+        <v>-0.2084959471630141</v>
+      </c>
+      <c r="EU362">
+        <v>1.041050389542238</v>
+      </c>
+      <c r="HB362">
+        <v>0.3920197953024297</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363">
@@ -23009,6 +26144,21 @@
       <c r="BD363">
         <v>-0.00997</v>
       </c>
+      <c r="ER363">
+        <v>0.11128</v>
+      </c>
+      <c r="ES363">
+        <v>0.07525999999999999</v>
+      </c>
+      <c r="ET363">
+        <v>1.410703897614892</v>
+      </c>
+      <c r="EU363">
+        <v>0.7667197773506994</v>
+      </c>
+      <c r="HB363">
+        <v>0.1392452486631325</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364">
@@ -23067,6 +26217,21 @@
       <c r="BD364">
         <v>-0.06553</v>
       </c>
+      <c r="ER364">
+        <v>0.07638</v>
+      </c>
+      <c r="ES364">
+        <v>0.06974</v>
+      </c>
+      <c r="ET364">
+        <v>1.0076688205638</v>
+      </c>
+      <c r="EU364">
+        <v>0.2452299601198278</v>
+      </c>
+      <c r="HB364">
+        <v>0.2734243027558085</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365">
@@ -23549,6 +26714,21 @@
       <c r="BD373">
         <v>0.18333</v>
       </c>
+      <c r="ER373">
+        <v>0.19007</v>
+      </c>
+      <c r="ES373">
+        <v>0.09264</v>
+      </c>
+      <c r="ET373">
+        <v>0.07449160035366927</v>
+      </c>
+      <c r="EU373">
+        <v>1.048315262894975</v>
+      </c>
+      <c r="HB373">
+        <v>0.0401982893162823</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374">
@@ -23607,6 +26787,21 @@
       <c r="BD374">
         <v>-2.02455</v>
       </c>
+      <c r="ER374">
+        <v>-0.92872</v>
+      </c>
+      <c r="ES374">
+        <v>0.39965</v>
+      </c>
+      <c r="ET374">
+        <v>1.594885677276631</v>
+      </c>
+      <c r="EU374">
+        <v>0.3383236667131793</v>
+      </c>
+      <c r="HB374">
+        <v>0.02013442733305595</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375">
@@ -23665,6 +26860,21 @@
       <c r="BD375">
         <v>0.52438</v>
       </c>
+      <c r="ER375">
+        <v>0.74646</v>
+      </c>
+      <c r="ES375">
+        <v>0.40552</v>
+      </c>
+      <c r="ET375">
+        <v>0.549553339437282</v>
+      </c>
+      <c r="EU375">
+        <v>1.006990472148874</v>
+      </c>
+      <c r="HB375">
+        <v>0.06565854289786226</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376">
@@ -23723,6 +26933,21 @@
       <c r="BD376">
         <v>-2.4</v>
       </c>
+      <c r="ER376">
+        <v>-1.10826</v>
+      </c>
+      <c r="ES376">
+        <v>1.47626</v>
+      </c>
+      <c r="ET376">
+        <v>0.6077889813721292</v>
+      </c>
+      <c r="EU376">
+        <v>0.482482019913576</v>
+      </c>
+      <c r="HB376">
+        <v>0.4528203306048463</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377">
@@ -23781,6 +27006,21 @@
       <c r="BD377">
         <v>0.5</v>
       </c>
+      <c r="ER377">
+        <v>1.42239</v>
+      </c>
+      <c r="ES377">
+        <v>1.47966</v>
+      </c>
+      <c r="ET377">
+        <v>0.5789252359911629</v>
+      </c>
+      <c r="EU377">
+        <v>0.8624613819458173</v>
+      </c>
+      <c r="HB377">
+        <v>0.3364037796041419</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378">
@@ -23839,6 +27079,21 @@
       <c r="BD378">
         <v>-3.05833</v>
       </c>
+      <c r="ER378">
+        <v>-4.21281</v>
+      </c>
+      <c r="ES378">
+        <v>3.28642</v>
+      </c>
+      <c r="ET378">
+        <v>-0.344243768766754</v>
+      </c>
+      <c r="EU378">
+        <v>0.9602967916639179</v>
+      </c>
+      <c r="HB378">
+        <v>0.1998832576951882</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379">
@@ -23897,6 +27152,21 @@
       <c r="BD379">
         <v>-3.86667</v>
       </c>
+      <c r="ER379">
+        <v>-4.17161</v>
+      </c>
+      <c r="ES379">
+        <v>2.14508</v>
+      </c>
+      <c r="ET379">
+        <v>-0.14176925651802</v>
+      </c>
+      <c r="EU379">
+        <v>0.9945401466968604</v>
+      </c>
+      <c r="HB379">
+        <v>0.05180700169495661</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380">
@@ -23955,6 +27225,21 @@
       <c r="BD380">
         <v>7.54167</v>
       </c>
+      <c r="ER380">
+        <v>5.22914</v>
+      </c>
+      <c r="ES380">
+        <v>3.29081</v>
+      </c>
+      <c r="ET380">
+        <v>-0.6335282063645129</v>
+      </c>
+      <c r="EU380">
+        <v>0.8127608521127471</v>
+      </c>
+      <c r="HB380">
+        <v>0.1120574488865484</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381">
@@ -24013,6 +27298,21 @@
       <c r="BD381">
         <v>0.06666999999999999</v>
       </c>
+      <c r="ER381">
+        <v>0.06572</v>
+      </c>
+      <c r="ES381">
+        <v>0.091</v>
+      </c>
+      <c r="ET381">
+        <v>-0.01049028268551228</v>
+      </c>
+      <c r="EU381">
+        <v>1.009740921037845</v>
+      </c>
+      <c r="HB381">
+        <v>0.4701728743860582</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382">
@@ -24071,6 +27371,21 @@
       <c r="BD382">
         <v>5.41667</v>
       </c>
+      <c r="ER382">
+        <v>4.39622</v>
+      </c>
+      <c r="ES382">
+        <v>2.16191</v>
+      </c>
+      <c r="ET382">
+        <v>-0.3503149727939032</v>
+      </c>
+      <c r="EU382">
+        <v>0.550819314578585</v>
+      </c>
+      <c r="HB382">
+        <v>0.04200315331150781</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383">
@@ -24129,6 +27444,21 @@
       <c r="BD383">
         <v>0.1</v>
       </c>
+      <c r="ER383">
+        <v>0.10464</v>
+      </c>
+      <c r="ES383">
+        <v>0.08751</v>
+      </c>
+      <c r="ET383">
+        <v>0.05376593279258391</v>
+      </c>
+      <c r="EU383">
+        <v>1.028238299392161</v>
+      </c>
+      <c r="HB383">
+        <v>0.231794501076478</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384">
@@ -24187,6 +27517,21 @@
       <c r="BD384">
         <v>2.66667</v>
       </c>
+      <c r="ER384">
+        <v>2.68974</v>
+      </c>
+      <c r="ES384">
+        <v>0.28255</v>
+      </c>
+      <c r="ET384">
+        <v>0.08179110827483567</v>
+      </c>
+      <c r="EU384">
+        <v>1.003477455992787</v>
+      </c>
+      <c r="HB384">
+        <v>1.739830276243831E-21</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385">
@@ -24245,6 +27590,21 @@
       <c r="BD385">
         <v>-2.25</v>
       </c>
+      <c r="ER385">
+        <v>-2.6643</v>
+      </c>
+      <c r="ES385">
+        <v>0.28426</v>
+      </c>
+      <c r="ET385">
+        <v>-1.056268006016877</v>
+      </c>
+      <c r="EU385">
+        <v>0.5252304395463528</v>
+      </c>
+      <c r="HB385">
+        <v>7.066194807782278E-21</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386">
@@ -24303,6 +27663,21 @@
       <c r="BD386">
         <v>-9.032249999999999</v>
       </c>
+      <c r="ER386">
+        <v>-9.46574</v>
+      </c>
+      <c r="ES386">
+        <v>5.34559</v>
+      </c>
+      <c r="ET386">
+        <v>-0.08069374018063916</v>
+      </c>
+      <c r="EU386">
+        <v>0.9901769589061484</v>
+      </c>
+      <c r="HB386">
+        <v>0.07660114767175211</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387">
@@ -24361,6 +27736,21 @@
       <c r="BD387">
         <v>-0.03002</v>
       </c>
+      <c r="ER387">
+        <v>-0.02823</v>
+      </c>
+      <c r="ES387">
+        <v>0.04596</v>
+      </c>
+      <c r="ET387">
+        <v>0.03850290385029038</v>
+      </c>
+      <c r="EU387">
+        <v>0.9773293645860234</v>
+      </c>
+      <c r="HB387">
+        <v>0.5390635069626259</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388">
@@ -24419,6 +27809,21 @@
       <c r="BD388">
         <v>-2E-05</v>
       </c>
+      <c r="ER388">
+        <v>0.00558</v>
+      </c>
+      <c r="ES388">
+        <v>0.04618</v>
+      </c>
+      <c r="ET388">
+        <v>0.1198373635780013</v>
+      </c>
+      <c r="EU388">
+        <v>0.9765990446733603</v>
+      </c>
+      <c r="HB388">
+        <v>0.9038244766908262</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389">
@@ -24477,6 +27882,21 @@
       <c r="BD389">
         <v>0.00856</v>
       </c>
+      <c r="ER389">
+        <v>-0.01577</v>
+      </c>
+      <c r="ES389">
+        <v>0.32712</v>
+      </c>
+      <c r="ET389">
+        <v>-0.07306086904297168</v>
+      </c>
+      <c r="EU389">
+        <v>0.9649385224228447</v>
+      </c>
+      <c r="HB389">
+        <v>0.9615499896059623</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390">
@@ -24593,6 +28013,21 @@
       <c r="BD391">
         <v>0.07018000000000001</v>
       </c>
+      <c r="ER391">
+        <v>0.06272999999999999</v>
+      </c>
+      <c r="ES391">
+        <v>0.05732</v>
+      </c>
+      <c r="ET391">
+        <v>-0.1577721304531981</v>
+      </c>
+      <c r="EU391">
+        <v>1.473534803611059</v>
+      </c>
+      <c r="HB391">
+        <v>0.2737872933168209</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392">
@@ -24651,6 +28086,21 @@
       <c r="BD392">
         <v>0.875</v>
       </c>
+      <c r="ER392">
+        <v>0.68379</v>
+      </c>
+      <c r="ES392">
+        <v>0.52183</v>
+      </c>
+      <c r="ET392">
+        <v>-0.3795355299722112</v>
+      </c>
+      <c r="EU392">
+        <v>1.072856803970649</v>
+      </c>
+      <c r="HB392">
+        <v>0.1900709416691327</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393">
@@ -24709,6 +28159,21 @@
       <c r="BD393">
         <v>0.41333</v>
       </c>
+      <c r="ER393">
+        <v>0.40954</v>
+      </c>
+      <c r="ES393">
+        <v>0.45346</v>
+      </c>
+      <c r="ET393">
+        <v>-0.007593972910154605</v>
+      </c>
+      <c r="EU393">
+        <v>0.8255390752518333</v>
+      </c>
+      <c r="HB393">
+        <v>0.3664490977844408</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394">
@@ -24767,6 +28232,21 @@
       <c r="BD394">
         <v>1.06548</v>
       </c>
+      <c r="ER394">
+        <v>1.12618</v>
+      </c>
+      <c r="ES394">
+        <v>0.48443</v>
+      </c>
+      <c r="ET394">
+        <v>0.1367548326048754</v>
+      </c>
+      <c r="EU394">
+        <v>1.19115984165643</v>
+      </c>
+      <c r="HB394">
+        <v>0.02008518206809896</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395">
@@ -24825,6 +28305,21 @@
       <c r="BD395">
         <v>0.64381</v>
       </c>
+      <c r="ER395">
+        <v>0.63039</v>
+      </c>
+      <c r="ES395">
+        <v>0.43071</v>
+      </c>
+      <c r="ET395">
+        <v>-0.03052080964293834</v>
+      </c>
+      <c r="EU395">
+        <v>0.9595265120961119</v>
+      </c>
+      <c r="HB395">
+        <v>0.1433014673658506</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396">
@@ -24883,6 +28378,21 @@
       <c r="BD396">
         <v>0.95238</v>
       </c>
+      <c r="ER396">
+        <v>0.94218</v>
+      </c>
+      <c r="ES396">
+        <v>0.58546</v>
+      </c>
+      <c r="ET396">
+        <v>-0.01671829670059495</v>
+      </c>
+      <c r="EU396">
+        <v>0.9208272653560313</v>
+      </c>
+      <c r="HB396">
+        <v>0.1075510495328311</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397">
@@ -24941,6 +28451,21 @@
       <c r="BD397">
         <v>0.33905</v>
       </c>
+      <c r="ER397">
+        <v>0.3604</v>
+      </c>
+      <c r="ES397">
+        <v>0.63727</v>
+      </c>
+      <c r="ET397">
+        <v>0.03532487301245881</v>
+      </c>
+      <c r="EU397">
+        <v>1.111763491143003</v>
+      </c>
+      <c r="HB397">
+        <v>0.5717083133255239</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398">
@@ -24999,6 +28524,21 @@
       <c r="BD398">
         <v>0.04167</v>
       </c>
+      <c r="ER398">
+        <v>0.04443</v>
+      </c>
+      <c r="ES398">
+        <v>0.07753</v>
+      </c>
+      <c r="ET398">
+        <v>0.04019807748325078</v>
+      </c>
+      <c r="EU398">
+        <v>1.275063957889232</v>
+      </c>
+      <c r="HB398">
+        <v>0.5665983214749321</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399">
@@ -25057,6 +28597,21 @@
       <c r="BD399">
         <v>0.04267</v>
       </c>
+      <c r="ER399">
+        <v>0.04028</v>
+      </c>
+      <c r="ES399">
+        <v>0.07194</v>
+      </c>
+      <c r="ET399">
+        <v>-0.03514189089839724</v>
+      </c>
+      <c r="EU399">
+        <v>1.118910417374855</v>
+      </c>
+      <c r="HB399">
+        <v>0.5755401201394044</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400">
@@ -25115,6 +28670,21 @@
       <c r="BD400">
         <v>-4.73611</v>
       </c>
+      <c r="ER400">
+        <v>-4.60702</v>
+      </c>
+      <c r="ES400">
+        <v>2.38607</v>
+      </c>
+      <c r="ET400">
+        <v>0.02693488180909591</v>
+      </c>
+      <c r="EU400">
+        <v>0.2478627749676508</v>
+      </c>
+      <c r="HB400">
+        <v>0.05350799548169354</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401">
@@ -25173,6 +28743,21 @@
       <c r="BD401">
         <v>16.37111</v>
       </c>
+      <c r="ER401">
+        <v>16.99705</v>
+      </c>
+      <c r="ES401">
+        <v>5.05312</v>
+      </c>
+      <c r="ET401">
+        <v>0.1318401253654385</v>
+      </c>
+      <c r="EU401">
+        <v>1.132789010778197</v>
+      </c>
+      <c r="HB401">
+        <v>0.0007691224543857095</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402">
@@ -25231,6 +28816,21 @@
       <c r="BD402">
         <v>-0.08</v>
       </c>
+      <c r="ER402">
+        <v>-0.03897</v>
+      </c>
+      <c r="ES402">
+        <v>0.1278</v>
+      </c>
+      <c r="ET402">
+        <v>0.3367531188443861</v>
+      </c>
+      <c r="EU402">
+        <v>1.100226058824873</v>
+      </c>
+      <c r="HB402">
+        <v>0.7604197883044342</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403">
@@ -25289,6 +28889,21 @@
       <c r="BD403">
         <v>-0.16</v>
       </c>
+      <c r="ER403">
+        <v>-0.16387</v>
+      </c>
+      <c r="ES403">
+        <v>0.12166</v>
+      </c>
+      <c r="ET403">
+        <v>-0.03176296782665779</v>
+      </c>
+      <c r="EU403">
+        <v>0.9970474878736157</v>
+      </c>
+      <c r="HB403">
+        <v>0.1779961697820868</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404">
@@ -25347,6 +28962,21 @@
       <c r="BD404">
         <v>4.38333</v>
       </c>
+      <c r="ER404">
+        <v>4.31581</v>
+      </c>
+      <c r="ES404">
+        <v>2.02992</v>
+      </c>
+      <c r="ET404">
+        <v>-0.03105538639855027</v>
+      </c>
+      <c r="EU404">
+        <v>0.8716996111046623</v>
+      </c>
+      <c r="HB404">
+        <v>0.03349505336077986</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405">
@@ -25405,6 +29035,21 @@
       <c r="BD405">
         <v>4.62</v>
       </c>
+      <c r="ER405">
+        <v>4.62014</v>
+      </c>
+      <c r="ES405">
+        <v>1.97688</v>
+      </c>
+      <c r="ET405">
+        <v>6.49857031453215E-05</v>
+      </c>
+      <c r="EU405">
+        <v>0.8420544760832502</v>
+      </c>
+      <c r="HB405">
+        <v>0.01943467525774552</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406">
@@ -25463,6 +29108,21 @@
       <c r="BD406">
         <v>0.10723</v>
       </c>
+      <c r="ER406">
+        <v>0.11443</v>
+      </c>
+      <c r="ES406">
+        <v>0.04476</v>
+      </c>
+      <c r="ET406">
+        <v>0.1525423728813559</v>
+      </c>
+      <c r="EU406">
+        <v>0.8992825337546684</v>
+      </c>
+      <c r="HB406">
+        <v>0.01057238743504815</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407">
@@ -25521,6 +29181,21 @@
       <c r="BD407">
         <v>0.10042</v>
       </c>
+      <c r="ER407">
+        <v>0.1026</v>
+      </c>
+      <c r="ES407">
+        <v>0.03833</v>
+      </c>
+      <c r="ET407">
+        <v>0.04661107547573234</v>
+      </c>
+      <c r="EU407">
+        <v>0.6716498138068603</v>
+      </c>
+      <c r="HB407">
+        <v>0.007433908335533883</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408">
@@ -25579,6 +29254,21 @@
       <c r="BD408">
         <v>11.12589</v>
       </c>
+      <c r="ER408">
+        <v>11.21713</v>
+      </c>
+      <c r="ES408">
+        <v>5.52489</v>
+      </c>
+      <c r="ET408">
+        <v>0.01696935881340942</v>
+      </c>
+      <c r="EU408">
+        <v>1.055863030144377</v>
+      </c>
+      <c r="HB408">
+        <v>0.04232705020474922</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409">
@@ -25637,6 +29327,21 @@
       <c r="BD409">
         <v>221.67492</v>
       </c>
+      <c r="ER409">
+        <v>221.72477</v>
+      </c>
+      <c r="ES409">
+        <v>20.18542</v>
+      </c>
+      <c r="ET409">
+        <v>0.002003424107000153</v>
+      </c>
+      <c r="EU409">
+        <v>0.658098719519726</v>
+      </c>
+      <c r="HB409">
+        <v>4.542362629339534E-28</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410">
@@ -25695,6 +29400,21 @@
       <c r="BD410">
         <v>33.06179</v>
       </c>
+      <c r="ER410">
+        <v>32.93448</v>
+      </c>
+      <c r="ES410">
+        <v>3.50636</v>
+      </c>
+      <c r="ET410">
+        <v>-0.02959417554267256</v>
+      </c>
+      <c r="EU410">
+        <v>0.6643553879075789</v>
+      </c>
+      <c r="HB410">
+        <v>5.843522319571724E-21</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411">
@@ -25753,6 +29473,21 @@
       <c r="BD411">
         <v>0.55123</v>
       </c>
+      <c r="ER411">
+        <v>0.54305</v>
+      </c>
+      <c r="ES411">
+        <v>0.02518</v>
+      </c>
+      <c r="ET411">
+        <v>-0.2654982148653023</v>
+      </c>
+      <c r="EU411">
+        <v>0.6679255471732023</v>
+      </c>
+      <c r="HB411">
+        <v>3.689480893626622E-103</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412">
@@ -25811,6 +29546,21 @@
       <c r="BD412">
         <v>0.58591</v>
       </c>
+      <c r="ER412">
+        <v>0.58669</v>
+      </c>
+      <c r="ES412">
+        <v>0.02492</v>
+      </c>
+      <c r="ET412">
+        <v>0.02680412371134031</v>
+      </c>
+      <c r="EU412">
+        <v>0.7333479765236595</v>
+      </c>
+      <c r="HB412">
+        <v>1.482926208377489E-122</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413">
@@ -25869,6 +29619,21 @@
       <c r="BD413">
         <v>-67.66391</v>
       </c>
+      <c r="ER413">
+        <v>-69.23085</v>
+      </c>
+      <c r="ES413">
+        <v>133.82077</v>
+      </c>
+      <c r="ET413">
+        <v>-0.005251264180506175</v>
+      </c>
+      <c r="EU413">
+        <v>0.201126848820739</v>
+      </c>
+      <c r="HB413">
+        <v>0.6049187688670083</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414">
@@ -25927,6 +29692,21 @@
       <c r="BD414">
         <v>268.77895</v>
       </c>
+      <c r="ER414">
+        <v>190.97118</v>
+      </c>
+      <c r="ES414">
+        <v>403.10814</v>
+      </c>
+      <c r="ET414">
+        <v>-0.2344022958767753</v>
+      </c>
+      <c r="EU414">
+        <v>1.474758545242881</v>
+      </c>
+      <c r="HB414">
+        <v>0.6356804958803249</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415">
@@ -25985,6 +29765,21 @@
       <c r="BD415">
         <v>-14.81855</v>
       </c>
+      <c r="ER415">
+        <v>-13.3294</v>
+      </c>
+      <c r="ES415">
+        <v>11.52378</v>
+      </c>
+      <c r="ET415">
+        <v>0.1351898504346248</v>
+      </c>
+      <c r="EU415">
+        <v>1.094463293572618</v>
+      </c>
+      <c r="HB415">
+        <v>0.2474004939968524</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416">
@@ -26043,6 +29838,21 @@
       <c r="BD416">
         <v>-9.701879999999999</v>
       </c>
+      <c r="ER416">
+        <v>-16.25827</v>
+      </c>
+      <c r="ES416">
+        <v>15.44677</v>
+      </c>
+      <c r="ET416">
+        <v>-0.5350539020867167</v>
+      </c>
+      <c r="EU416">
+        <v>1.589062112107802</v>
+      </c>
+      <c r="HB416">
+        <v>0.2925540444052374</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417">
@@ -26101,6 +29911,21 @@
       <c r="BD417">
         <v>2.2792</v>
       </c>
+      <c r="ER417">
+        <v>1.08801</v>
+      </c>
+      <c r="ES417">
+        <v>0.49592</v>
+      </c>
+      <c r="ET417">
+        <v>-1.951522796900342</v>
+      </c>
+      <c r="EU417">
+        <v>0.6600980149518352</v>
+      </c>
+      <c r="HB417">
+        <v>0.02824098824836922</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418">
@@ -26159,6 +29984,21 @@
       <c r="BD418">
         <v>0.25301</v>
       </c>
+      <c r="ER418">
+        <v>-0.26104</v>
+      </c>
+      <c r="ES418">
+        <v>0.35794</v>
+      </c>
+      <c r="ET418">
+        <v>-0.7570580698369686</v>
+      </c>
+      <c r="EU418">
+        <v>0.2778869338467722</v>
+      </c>
+      <c r="HB418">
+        <v>0.4658278121142933</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419">
@@ -26217,6 +30057,21 @@
       <c r="BD419">
         <v>1.48797</v>
       </c>
+      <c r="ER419">
+        <v>1.00898</v>
+      </c>
+      <c r="ES419">
+        <v>0.30094</v>
+      </c>
+      <c r="ET419">
+        <v>-0.5949003924685777</v>
+      </c>
+      <c r="EU419">
+        <v>0.1396996927322866</v>
+      </c>
+      <c r="HB419">
+        <v>0.0008000966347927223</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420">
@@ -26275,6 +30130,21 @@
       <c r="BD420">
         <v>0.0094</v>
       </c>
+      <c r="ER420">
+        <v>-0.68589</v>
+      </c>
+      <c r="ES420">
+        <v>0.28369</v>
+      </c>
+      <c r="ET420">
+        <v>-0.7762705430510896</v>
+      </c>
+      <c r="EU420">
+        <v>0.1003187936418576</v>
+      </c>
+      <c r="HB420">
+        <v>0.0156170286936847</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421">
@@ -26333,6 +30203,21 @@
       <c r="BD421">
         <v>-0.18797</v>
       </c>
+      <c r="ER421">
+        <v>-0.31581</v>
+      </c>
+      <c r="ES421">
+        <v>0.13919</v>
+      </c>
+      <c r="ET421">
+        <v>-0.8365944637131076</v>
+      </c>
+      <c r="EU421">
+        <v>0.8296836240044768</v>
+      </c>
+      <c r="HB421">
+        <v>0.02327361722113944</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422">
@@ -26391,6 +30276,21 @@
       <c r="BD422">
         <v>-0.18797</v>
       </c>
+      <c r="ER422">
+        <v>-0.29906</v>
+      </c>
+      <c r="ES422">
+        <v>0.13435</v>
+      </c>
+      <c r="ET422">
+        <v>-0.6535090299429378</v>
+      </c>
+      <c r="EU422">
+        <v>0.6246382770822925</v>
+      </c>
+      <c r="HB422">
+        <v>0.02601572700734046</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423">
@@ -26449,6 +30349,21 @@
       <c r="BD423">
         <v>-0.49048</v>
       </c>
+      <c r="ER423">
+        <v>-0.3627</v>
+      </c>
+      <c r="ES423">
+        <v>0.47444</v>
+      </c>
+      <c r="ET423">
+        <v>0.1495955137736048</v>
+      </c>
+      <c r="EU423">
+        <v>0.308513353260742</v>
+      </c>
+      <c r="HB423">
+        <v>0.4445811141268444</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424">
@@ -26507,6 +30422,21 @@
       <c r="BD424">
         <v>-0.7285700000000001</v>
       </c>
+      <c r="ER424">
+        <v>-0.42653</v>
+      </c>
+      <c r="ES424">
+        <v>0.37163</v>
+      </c>
+      <c r="ET424">
+        <v>0.3178699221216586</v>
+      </c>
+      <c r="EU424">
+        <v>0.1529647913138051</v>
+      </c>
+      <c r="HB424">
+        <v>0.2510810424895822</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425">
@@ -26565,6 +30495,21 @@
       <c r="BD425">
         <v>0.01754</v>
       </c>
+      <c r="ER425">
+        <v>-0.00313</v>
+      </c>
+      <c r="ES425">
+        <v>0.06263000000000001</v>
+      </c>
+      <c r="ET425">
+        <v>-0.1439715818067842</v>
+      </c>
+      <c r="EU425">
+        <v>0.190299401597923</v>
+      </c>
+      <c r="HB425">
+        <v>0.960141473944489</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426">
@@ -26623,6 +30568,21 @@
       <c r="BD426">
         <v>-0.17293</v>
       </c>
+      <c r="ER426">
+        <v>-0.07366</v>
+      </c>
+      <c r="ES426">
+        <v>0.06826</v>
+      </c>
+      <c r="ET426">
+        <v>0.6215640849038884</v>
+      </c>
+      <c r="EU426">
+        <v>0.1826704709812677</v>
+      </c>
+      <c r="HB426">
+        <v>0.2805390112431108</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427">
@@ -26797,6 +30757,21 @@
       <c r="BD429">
         <v>-0.03509</v>
       </c>
+      <c r="ER429">
+        <v>-0.09991</v>
+      </c>
+      <c r="ES429">
+        <v>0.06818</v>
+      </c>
+      <c r="ET429">
+        <v>-0.4321621441429427</v>
+      </c>
+      <c r="EU429">
+        <v>0.2066281006061782</v>
+      </c>
+      <c r="HB429">
+        <v>0.1428157047898466</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430">
@@ -26855,6 +30830,21 @@
       <c r="BD430">
         <v>-0.15414</v>
       </c>
+      <c r="ER430">
+        <v>-0.2458</v>
+      </c>
+      <c r="ES430">
+        <v>0.10256</v>
+      </c>
+      <c r="ET430">
+        <v>-0.5493557087204075</v>
+      </c>
+      <c r="EU430">
+        <v>0.3778362327062048</v>
+      </c>
+      <c r="HB430">
+        <v>0.01654590637385818</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431">
@@ -26913,6 +30903,21 @@
       <c r="BD431">
         <v>-6.00608</v>
       </c>
+      <c r="ER431">
+        <v>-5.92651</v>
+      </c>
+      <c r="ES431">
+        <v>2.05327</v>
+      </c>
+      <c r="ET431">
+        <v>0.03918719927505872</v>
+      </c>
+      <c r="EU431">
+        <v>1.022543655037558</v>
+      </c>
+      <c r="HB431">
+        <v>0.003897058249280093</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432">
@@ -26971,6 +30976,21 @@
       <c r="BD432">
         <v>-0.04195</v>
       </c>
+      <c r="ER432">
+        <v>-0.03413</v>
+      </c>
+      <c r="ES432">
+        <v>0.08202</v>
+      </c>
+      <c r="ET432">
+        <v>0.09642416769420468</v>
+      </c>
+      <c r="EU432">
+        <v>1.022816726241065</v>
+      </c>
+      <c r="HB432">
+        <v>0.6773236444634455</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433">
@@ -27029,6 +31049,21 @@
       <c r="BD433">
         <v>-0.03644</v>
       </c>
+      <c r="ER433">
+        <v>-0.03671</v>
+      </c>
+      <c r="ES433">
+        <v>0.00765</v>
+      </c>
+      <c r="ET433">
+        <v>-0.03529411764705875</v>
+      </c>
+      <c r="EU433">
+        <v>1</v>
+      </c>
+      <c r="HB433">
+        <v>1.597045197012002E-06</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434">
@@ -27087,6 +31122,21 @@
       <c r="BD434">
         <v>30.50756</v>
       </c>
+      <c r="ER434">
+        <v>28.42176</v>
+      </c>
+      <c r="ES434">
+        <v>13.95176</v>
+      </c>
+      <c r="ET434">
+        <v>-0.1464522987351657</v>
+      </c>
+      <c r="EU434">
+        <v>0.9596327325866021</v>
+      </c>
+      <c r="HB434">
+        <v>0.0416355000733581</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435">
@@ -27145,6 +31195,21 @@
       <c r="BD435">
         <v>-0.00746</v>
       </c>
+      <c r="ER435">
+        <v>-0.00748</v>
+      </c>
+      <c r="ES435">
+        <v>0.00323</v>
+      </c>
+      <c r="ET435">
+        <v>-0.006191950464396302</v>
+      </c>
+      <c r="EU435">
+        <v>1</v>
+      </c>
+      <c r="HB435">
+        <v>0.02056976625422279</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436">
@@ -27203,6 +31268,21 @@
       <c r="BD436">
         <v>-0.02063</v>
       </c>
+      <c r="ER436">
+        <v>-0.02081</v>
+      </c>
+      <c r="ES436">
+        <v>0.00649</v>
+      </c>
+      <c r="ET436">
+        <v>-0.0277349768875192</v>
+      </c>
+      <c r="EU436">
+        <v>1</v>
+      </c>
+      <c r="HB436">
+        <v>0.001343736173666301</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437">
@@ -27261,6 +31341,21 @@
       <c r="BD437">
         <v>-0.02063</v>
       </c>
+      <c r="ER437">
+        <v>-0.02072</v>
+      </c>
+      <c r="ES437">
+        <v>0.00366</v>
+      </c>
+      <c r="ET437">
+        <v>-0.02459016393442617</v>
+      </c>
+      <c r="EU437">
+        <v>1</v>
+      </c>
+      <c r="HB437">
+        <v>1.503161953353468E-08</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438">
@@ -27319,6 +31414,21 @@
       <c r="BD438">
         <v>-0.00439</v>
       </c>
+      <c r="ER438">
+        <v>-0.00437</v>
+      </c>
+      <c r="ES438">
+        <v>0.00175</v>
+      </c>
+      <c r="ET438">
+        <v>0.01142857142857146</v>
+      </c>
+      <c r="EU438">
+        <v>1</v>
+      </c>
+      <c r="HB438">
+        <v>0.01251985080530859</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439">
@@ -27377,6 +31487,21 @@
       <c r="BD439">
         <v>-0.00746</v>
       </c>
+      <c r="ER439">
+        <v>-0.00742</v>
+      </c>
+      <c r="ES439">
+        <v>0.00306</v>
+      </c>
+      <c r="ET439">
+        <v>0.0131147540983604</v>
+      </c>
+      <c r="EU439">
+        <v>1.006568126847621</v>
+      </c>
+      <c r="HB439">
+        <v>0.01531527824568201</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440">
@@ -27435,6 +31560,21 @@
       <c r="BD440">
         <v>-0.00263</v>
       </c>
+      <c r="ER440">
+        <v>-0.00263</v>
+      </c>
+      <c r="ES440">
+        <v>0.00175</v>
+      </c>
+      <c r="ET440">
+        <v>0</v>
+      </c>
+      <c r="EU440">
+        <v>1</v>
+      </c>
+      <c r="HB440">
+        <v>0.1328758866613154</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441">
@@ -27493,6 +31633,21 @@
       <c r="BD441">
         <v>2.08333</v>
       </c>
+      <c r="ER441">
+        <v>2.13964</v>
+      </c>
+      <c r="ES441">
+        <v>1.36346</v>
+      </c>
+      <c r="ET441">
+        <v>0.04096583634035608</v>
+      </c>
+      <c r="EU441">
+        <v>0.9839145879090276</v>
+      </c>
+      <c r="HB441">
+        <v>0.1165845055506103</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442">
@@ -27551,6 +31706,21 @@
       <c r="BD442">
         <v>-0.5419</v>
       </c>
+      <c r="ER442">
+        <v>-0.05007</v>
+      </c>
+      <c r="ES442">
+        <v>0.41908</v>
+      </c>
+      <c r="ET442">
+        <v>0.4662691264860355</v>
+      </c>
+      <c r="EU442">
+        <v>0.1578473005462545</v>
+      </c>
+      <c r="HB442">
+        <v>0.9048982569845025</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443">
@@ -27609,6 +31779,21 @@
       <c r="BD443">
         <v>0.30163</v>
       </c>
+      <c r="ER443">
+        <v>0.59219</v>
+      </c>
+      <c r="ES443">
+        <v>0.45292</v>
+      </c>
+      <c r="ET443">
+        <v>0.2588092777995511</v>
+      </c>
+      <c r="EU443">
+        <v>0.1627537580334676</v>
+      </c>
+      <c r="HB443">
+        <v>0.1910451280802988</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444">
@@ -27667,6 +31852,21 @@
       <c r="BD444">
         <v>0.19444</v>
       </c>
+      <c r="ER444">
+        <v>0.21144</v>
+      </c>
+      <c r="ES444">
+        <v>0.11761</v>
+      </c>
+      <c r="ET444">
+        <v>0.145063571977131</v>
+      </c>
+      <c r="EU444">
+        <v>1.007180691593891</v>
+      </c>
+      <c r="HB444">
+        <v>0.07220770722817194</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445">
@@ -27725,6 +31925,21 @@
       <c r="BD445">
         <v>0.82143</v>
       </c>
+      <c r="ER445">
+        <v>0.89812</v>
+      </c>
+      <c r="ES445">
+        <v>0.85647</v>
+      </c>
+      <c r="ET445">
+        <v>0.0727733389003815</v>
+      </c>
+      <c r="EU445">
+        <v>0.6605283120970666</v>
+      </c>
+      <c r="HB445">
+        <v>0.2943485160417754</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446">
@@ -27783,6 +31998,21 @@
       <c r="BD446">
         <v>0.11576</v>
       </c>
+      <c r="ER446">
+        <v>0.04766</v>
+      </c>
+      <c r="ES446">
+        <v>0.48797</v>
+      </c>
+      <c r="ET446">
+        <v>-0.1231108540024586</v>
+      </c>
+      <c r="EU446">
+        <v>0.778188322687678</v>
+      </c>
+      <c r="HB446">
+        <v>0.9221943868186218</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447">
@@ -27841,6 +32071,21 @@
       <c r="BD447">
         <v>-0.17241</v>
       </c>
+      <c r="ER447">
+        <v>-0.1406</v>
+      </c>
+      <c r="ES447">
+        <v>0.65981</v>
+      </c>
+      <c r="ET447">
+        <v>0.04205891686058812</v>
+      </c>
+      <c r="EU447">
+        <v>0.7610735287889152</v>
+      </c>
+      <c r="HB447">
+        <v>0.8312554792918534</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448">
@@ -27899,6 +32144,21 @@
       <c r="BD448">
         <v>-0.10961</v>
       </c>
+      <c r="ER448">
+        <v>-0.13194</v>
+      </c>
+      <c r="ES448">
+        <v>0.59291</v>
+      </c>
+      <c r="ET448">
+        <v>-0.03173317417007732</v>
+      </c>
+      <c r="EU448">
+        <v>0.7099489726125178</v>
+      </c>
+      <c r="HB448">
+        <v>0.8239016663880979</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449">
@@ -27957,6 +32217,21 @@
       <c r="BD449">
         <v>0.53103</v>
       </c>
+      <c r="ER449">
+        <v>0.42529</v>
+      </c>
+      <c r="ES449">
+        <v>0.66348</v>
+      </c>
+      <c r="ET449">
+        <v>-0.1260941114741587</v>
+      </c>
+      <c r="EU449">
+        <v>0.6259889560792112</v>
+      </c>
+      <c r="HB449">
+        <v>0.521523348846904</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450">
@@ -28015,6 +32290,21 @@
       <c r="BD450">
         <v>1.78799</v>
       </c>
+      <c r="ER450">
+        <v>0.91006</v>
+      </c>
+      <c r="ES450">
+        <v>0.8771600000000001</v>
+      </c>
+      <c r="ET450">
+        <v>-0.9409350081454171</v>
+      </c>
+      <c r="EU450">
+        <v>0.8838063397477869</v>
+      </c>
+      <c r="HB450">
+        <v>0.2994994440035726</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451">
@@ -28073,6 +32363,21 @@
       <c r="BD451">
         <v>-0.32143</v>
       </c>
+      <c r="ER451">
+        <v>-0.24432</v>
+      </c>
+      <c r="ES451">
+        <v>0.52799</v>
+      </c>
+      <c r="ET451">
+        <v>0.1536790497448979</v>
+      </c>
+      <c r="EU451">
+        <v>1.107284756016602</v>
+      </c>
+      <c r="HB451">
+        <v>0.6435535842818348</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452">
@@ -28131,6 +32436,21 @@
       <c r="BD452">
         <v>0.46447</v>
       </c>
+      <c r="ER452">
+        <v>0.70836</v>
+      </c>
+      <c r="ES452">
+        <v>0.51694</v>
+      </c>
+      <c r="ET452">
+        <v>0.4831801252080197</v>
+      </c>
+      <c r="EU452">
+        <v>1.04884282987399</v>
+      </c>
+      <c r="HB452">
+        <v>0.1705950126859676</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453">
@@ -28189,6 +32509,21 @@
       <c r="BD453">
         <v>0.11095</v>
       </c>
+      <c r="ER453">
+        <v>0.10716</v>
+      </c>
+      <c r="ES453">
+        <v>0.11843</v>
+      </c>
+      <c r="ET453">
+        <v>-0.03144706272817779</v>
+      </c>
+      <c r="EU453">
+        <v>0.9656176881593632</v>
+      </c>
+      <c r="HB453">
+        <v>0.3655510574088267</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454">
@@ -28247,6 +32582,21 @@
       <c r="BD454">
         <v>0.22486</v>
       </c>
+      <c r="ER454">
+        <v>0.27389</v>
+      </c>
+      <c r="ES454">
+        <v>0.13389</v>
+      </c>
+      <c r="ET454">
+        <v>0.4044044869679975</v>
+      </c>
+      <c r="EU454">
+        <v>1.219563527318773</v>
+      </c>
+      <c r="HB454">
+        <v>0.04079234682896703</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455">
@@ -28305,6 +32655,21 @@
       <c r="BD455">
         <v>0.15566</v>
       </c>
+      <c r="ER455">
+        <v>0.13697</v>
+      </c>
+      <c r="ES455">
+        <v>0.08827</v>
+      </c>
+      <c r="ET455">
+        <v>-0.2137710168134506</v>
+      </c>
+      <c r="EU455">
+        <v>1.019307679930974</v>
+      </c>
+      <c r="HB455">
+        <v>0.120730114799752</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456">
@@ -28363,6 +32728,21 @@
       <c r="BD456">
         <v>0.2823</v>
       </c>
+      <c r="ER456">
+        <v>0.27301</v>
+      </c>
+      <c r="ES456">
+        <v>0.08935999999999999</v>
+      </c>
+      <c r="ET456">
+        <v>-0.1062564337184035</v>
+      </c>
+      <c r="EU456">
+        <v>1.044636902312818</v>
+      </c>
+      <c r="HB456">
+        <v>0.002249329114491218</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457">
@@ -28421,6 +32801,21 @@
       <c r="BD457">
         <v>-0.19781</v>
       </c>
+      <c r="ER457">
+        <v>-0.14559</v>
+      </c>
+      <c r="ES457">
+        <v>0.1407</v>
+      </c>
+      <c r="ET457">
+        <v>0.3346363345081706</v>
+      </c>
+      <c r="EU457">
+        <v>0.8129440352026113</v>
+      </c>
+      <c r="HB457">
+        <v>0.3007834378613913</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458">
@@ -28479,6 +32874,21 @@
       <c r="BD458">
         <v>0.09696</v>
       </c>
+      <c r="ER458">
+        <v>0.14187</v>
+      </c>
+      <c r="ES458">
+        <v>0.13698</v>
+      </c>
+      <c r="ET458">
+        <v>0.2860873996687475</v>
+      </c>
+      <c r="EU458">
+        <v>0.7614224442525426</v>
+      </c>
+      <c r="HB458">
+        <v>0.3003427560472369</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459">
@@ -29279,6 +33689,21 @@
       <c r="BD473">
         <v>-0.07786</v>
       </c>
+      <c r="ER473">
+        <v>-0.07578</v>
+      </c>
+      <c r="ES473">
+        <v>0.02684</v>
+      </c>
+      <c r="ET473">
+        <v>0.07594012413289516</v>
+      </c>
+      <c r="EU473">
+        <v>0.9602425767326332</v>
+      </c>
+      <c r="HB473">
+        <v>0.004751755597499397</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474">
@@ -29337,6 +33762,21 @@
       <c r="BD474">
         <v>115.00262</v>
       </c>
+      <c r="ER474">
+        <v>114.28002</v>
+      </c>
+      <c r="ES474">
+        <v>18.34321</v>
+      </c>
+      <c r="ET474">
+        <v>-0.0405984478650419</v>
+      </c>
+      <c r="EU474">
+        <v>1.062120086287933</v>
+      </c>
+      <c r="HB474">
+        <v>4.661395824932743E-10</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475">
@@ -29395,6 +33835,21 @@
       <c r="BD475">
         <v>104.51507</v>
       </c>
+      <c r="ER475">
+        <v>104.87558</v>
+      </c>
+      <c r="ES475">
+        <v>18.68293</v>
+      </c>
+      <c r="ET475">
+        <v>0.02027438552882089</v>
+      </c>
+      <c r="EU475">
+        <v>1.103953403202541</v>
+      </c>
+      <c r="HB475">
+        <v>1.983388901863437E-08</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476">
@@ -29453,6 +33908,21 @@
       <c r="BD476">
         <v>92.24266</v>
       </c>
+      <c r="ER476">
+        <v>92.77401</v>
+      </c>
+      <c r="ES476">
+        <v>18.6822</v>
+      </c>
+      <c r="ET476">
+        <v>0.03039125125474391</v>
+      </c>
+      <c r="EU476">
+        <v>1.14180469991654</v>
+      </c>
+      <c r="HB476">
+        <v>6.838180973901968E-07</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477">
@@ -29511,6 +33981,21 @@
       <c r="BD477">
         <v>67.03332</v>
       </c>
+      <c r="ER477">
+        <v>73.34272</v>
+      </c>
+      <c r="ES477">
+        <v>7.08211</v>
+      </c>
+      <c r="ET477">
+        <v>0.7172217801523242</v>
+      </c>
+      <c r="EU477">
+        <v>0.6481210874538711</v>
+      </c>
+      <c r="HB477">
+        <v>3.92831974965026E-25</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478">
@@ -29569,6 +34054,21 @@
       <c r="BD478">
         <v>35.89907</v>
       </c>
+      <c r="ER478">
+        <v>37.02574</v>
+      </c>
+      <c r="ES478">
+        <v>6.23911</v>
+      </c>
+      <c r="ET478">
+        <v>0.1281979218343927</v>
+      </c>
+      <c r="EU478">
+        <v>0.5039805712650035</v>
+      </c>
+      <c r="HB478">
+        <v>2.94816707805845E-09</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479">
@@ -29627,6 +34127,21 @@
       <c r="BD479">
         <v>38.18532</v>
       </c>
+      <c r="ER479">
+        <v>43.37634</v>
+      </c>
+      <c r="ES479">
+        <v>6.32943</v>
+      </c>
+      <c r="ET479">
+        <v>0.6007235039253446</v>
+      </c>
+      <c r="EU479">
+        <v>0.5365041022799294</v>
+      </c>
+      <c r="HB479">
+        <v>7.225668816787242E-12</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480">
@@ -29685,6 +34200,21 @@
       <c r="BD480">
         <v>39.76081</v>
       </c>
+      <c r="ER480">
+        <v>28.48731</v>
+      </c>
+      <c r="ES480">
+        <v>17.90575</v>
+      </c>
+      <c r="ET480">
+        <v>-0.4115399849234032</v>
+      </c>
+      <c r="EU480">
+        <v>0.4272593441325976</v>
+      </c>
+      <c r="HB480">
+        <v>0.111618854840377</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481">
@@ -29743,6 +34273,21 @@
       <c r="BD481">
         <v>-26.60169</v>
       </c>
+      <c r="ER481">
+        <v>-24.96355</v>
+      </c>
+      <c r="ES481">
+        <v>16.92759</v>
+      </c>
+      <c r="ET481">
+        <v>0.05985811404590557</v>
+      </c>
+      <c r="EU481">
+        <v>0.3825905966824795</v>
+      </c>
+      <c r="HB481">
+        <v>0.1402863357055757</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482">
@@ -29801,6 +34346,21 @@
       <c r="BD482">
         <v>15.13331</v>
       </c>
+      <c r="ER482">
+        <v>24.46818</v>
+      </c>
+      <c r="ES482">
+        <v>17.12736</v>
+      </c>
+      <c r="ET482">
+        <v>0.3469109260811155</v>
+      </c>
+      <c r="EU482">
+        <v>0.4051354634283141</v>
+      </c>
+      <c r="HB482">
+        <v>0.1531186716047193</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483">
@@ -29859,6 +34419,21 @@
       <c r="BD483">
         <v>-127.98579</v>
       </c>
+      <c r="ER483">
+        <v>-132.53949</v>
+      </c>
+      <c r="ES483">
+        <v>12.66462</v>
+      </c>
+      <c r="ET483">
+        <v>-0.3523019505537869</v>
+      </c>
+      <c r="EU483">
+        <v>0.9600317380746302</v>
+      </c>
+      <c r="HB483">
+        <v>1.246349868979359E-25</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484">
@@ -29917,6 +34492,21 @@
       <c r="BD484">
         <v>15.65857</v>
       </c>
+      <c r="ER484">
+        <v>15.67726</v>
+      </c>
+      <c r="ES484">
+        <v>3.67572</v>
+      </c>
+      <c r="ET484">
+        <v>0.004746558173908712</v>
+      </c>
+      <c r="EU484">
+        <v>0.8714126414194455</v>
+      </c>
+      <c r="HB484">
+        <v>1.998256831220031E-05</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485">
@@ -29975,6 +34565,21 @@
       <c r="BD485">
         <v>0.09837</v>
       </c>
+      <c r="ER485">
+        <v>0.09741</v>
+      </c>
+      <c r="ES485">
+        <v>0.07956000000000001</v>
+      </c>
+      <c r="ET485">
+        <v>-0.01138925139399694</v>
+      </c>
+      <c r="EU485">
+        <v>0.8909174005234008</v>
+      </c>
+      <c r="HB485">
+        <v>0.2208168385597955</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486">
@@ -30033,6 +34638,21 @@
       <c r="BD486">
         <v>0.09837</v>
       </c>
+      <c r="ER486">
+        <v>0.10889</v>
+      </c>
+      <c r="ES486">
+        <v>0.07266</v>
+      </c>
+      <c r="ET486">
+        <v>0.1248072131925495</v>
+      </c>
+      <c r="EU486">
+        <v>0.7430853160328516</v>
+      </c>
+      <c r="HB486">
+        <v>0.1339712738161129</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487">
@@ -30091,6 +34711,21 @@
       <c r="BD487">
         <v>0.04</v>
       </c>
+      <c r="ER487">
+        <v>0.04888</v>
+      </c>
+      <c r="ES487">
+        <v>0.02557</v>
+      </c>
+      <c r="ET487">
+        <v>0.314002828854314</v>
+      </c>
+      <c r="EU487">
+        <v>0.8175280184615754</v>
+      </c>
+      <c r="HB487">
+        <v>0.05592557159676423</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488">
@@ -30149,6 +34784,21 @@
       <c r="BD488">
         <v>13.89592</v>
       </c>
+      <c r="ER488">
+        <v>13.16231</v>
+      </c>
+      <c r="ES488">
+        <v>5.34045</v>
+      </c>
+      <c r="ET488">
+        <v>-0.122429736536</v>
+      </c>
+      <c r="EU488">
+        <v>0.7943264992864563</v>
+      </c>
+      <c r="HB488">
+        <v>0.01371493017525597</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489">
@@ -30207,6 +34857,21 @@
       <c r="BD489">
         <v>0.0625</v>
       </c>
+      <c r="ER489">
+        <v>0.10157</v>
+      </c>
+      <c r="ES489">
+        <v>0.14836</v>
+      </c>
+      <c r="ET489">
+        <v>0.2480792431265477</v>
+      </c>
+      <c r="EU489">
+        <v>0.8874168757638485</v>
+      </c>
+      <c r="HB489">
+        <v>0.4935846927018592</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490">
@@ -30265,6 +34930,21 @@
       <c r="BD490">
         <v>0.08449</v>
       </c>
+      <c r="ER490">
+        <v>0.07879</v>
+      </c>
+      <c r="ES490">
+        <v>0.07926</v>
+      </c>
+      <c r="ET490">
+        <v>-0.07320832263036214</v>
+      </c>
+      <c r="EU490">
+        <v>1.036285299102653</v>
+      </c>
+      <c r="HB490">
+        <v>0.3201887170070748</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491">
@@ -30323,6 +35003,21 @@
       <c r="BD491">
         <v>-0.17403</v>
       </c>
+      <c r="ER491">
+        <v>-0.16706</v>
+      </c>
+      <c r="ES491">
+        <v>0.05655</v>
+      </c>
+      <c r="ET491">
+        <v>0.1209859399409825</v>
+      </c>
+      <c r="EU491">
+        <v>0.9635393778581843</v>
+      </c>
+      <c r="HB491">
+        <v>0.0031348095441099</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492">
@@ -30381,6 +35076,21 @@
       <c r="BD492">
         <v>-0.25088</v>
       </c>
+      <c r="ER492">
+        <v>-0.243</v>
+      </c>
+      <c r="ES492">
+        <v>0.05245</v>
+      </c>
+      <c r="ET492">
+        <v>0.1496960486322188</v>
+      </c>
+      <c r="EU492">
+        <v>0.9927941829459261</v>
+      </c>
+      <c r="HB492">
+        <v>3.604327638397826E-06</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493">
@@ -30439,6 +35149,21 @@
       <c r="BD493">
         <v>-0.24315</v>
       </c>
+      <c r="ER493">
+        <v>-0.24598</v>
+      </c>
+      <c r="ES493">
+        <v>0.05955</v>
+      </c>
+      <c r="ET493">
+        <v>-0.04749916079221213</v>
+      </c>
+      <c r="EU493">
+        <v>0.998993204191678</v>
+      </c>
+      <c r="HB493">
+        <v>3.617444540521944E-05</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494">
@@ -30497,6 +35222,21 @@
       <c r="BD494">
         <v>-0.19142</v>
       </c>
+      <c r="ER494">
+        <v>-0.19004</v>
+      </c>
+      <c r="ES494">
+        <v>0.05653</v>
+      </c>
+      <c r="ET494">
+        <v>0.02338983050847492</v>
+      </c>
+      <c r="EU494">
+        <v>0.918023814995691</v>
+      </c>
+      <c r="HB494">
+        <v>0.0007744885868502027</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495">
@@ -30555,6 +35295,21 @@
       <c r="BD495">
         <v>-0.14884</v>
       </c>
+      <c r="ER495">
+        <v>-0.15715</v>
+      </c>
+      <c r="ES495">
+        <v>0.05931</v>
+      </c>
+      <c r="ET495">
+        <v>-0.1350780234070223</v>
+      </c>
+      <c r="EU495">
+        <v>0.9294439278630144</v>
+      </c>
+      <c r="HB495">
+        <v>0.008057817661691119</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496">
@@ -30613,6 +35368,21 @@
       <c r="BD496">
         <v>3.83183</v>
       </c>
+      <c r="ER496">
+        <v>4.03048</v>
+      </c>
+      <c r="ES496">
+        <v>2.29608</v>
+      </c>
+      <c r="ET496">
+        <v>0.08564530384358351</v>
+      </c>
+      <c r="EU496">
+        <v>0.9799501900360509</v>
+      </c>
+      <c r="HB496">
+        <v>0.07919529185942838</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497">
@@ -30671,6 +35441,21 @@
       <c r="BD497">
         <v>0.70551</v>
       </c>
+      <c r="ER497">
+        <v>0.65904</v>
+      </c>
+      <c r="ES497">
+        <v>0.5542</v>
+      </c>
+      <c r="ET497">
+        <v>-0.0886882836803634</v>
+      </c>
+      <c r="EU497">
+        <v>1.118716899701654</v>
+      </c>
+      <c r="HB497">
+        <v>0.2343713673276338</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498">
@@ -30729,6 +35514,21 @@
       <c r="BD498">
         <v>5.22021</v>
       </c>
+      <c r="ER498">
+        <v>3.87113</v>
+      </c>
+      <c r="ES498">
+        <v>2.23975</v>
+      </c>
+      <c r="ET498">
+        <v>-0.5802794122707409</v>
+      </c>
+      <c r="EU498">
+        <v>0.9281069132233255</v>
+      </c>
+      <c r="HB498">
+        <v>0.08392084711608015</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499">
@@ -30787,6 +35587,21 @@
       <c r="BD499">
         <v>-0.61765</v>
       </c>
+      <c r="ER499">
+        <v>-0.25759</v>
+      </c>
+      <c r="ES499">
+        <v>0.60869</v>
+      </c>
+      <c r="ET499">
+        <v>0.5925157977883098</v>
+      </c>
+      <c r="EU499">
+        <v>1.003326880396867</v>
+      </c>
+      <c r="HB499">
+        <v>0.6721584653260704</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500">
@@ -30845,6 +35660,21 @@
       <c r="BD500">
         <v>-0.81373</v>
       </c>
+      <c r="ER500">
+        <v>-0.7176</v>
+      </c>
+      <c r="ES500">
+        <v>0.58923</v>
+      </c>
+      <c r="ET500">
+        <v>0.1580539616250965</v>
+      </c>
+      <c r="EU500">
+        <v>0.9385611813057092</v>
+      </c>
+      <c r="HB500">
+        <v>0.2232769517302291</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501">
@@ -30903,6 +35733,21 @@
       <c r="BD501">
         <v>2.18197</v>
       </c>
+      <c r="ER501">
+        <v>5.85696</v>
+      </c>
+      <c r="ES501">
+        <v>11.72944</v>
+      </c>
+      <c r="ET501">
+        <v>0.3119836868167645</v>
+      </c>
+      <c r="EU501">
+        <v>0.9915303329187239</v>
+      </c>
+      <c r="HB501">
+        <v>0.6175409954586182</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502">
@@ -30961,6 +35806,21 @@
       <c r="BD502">
         <v>1.31368</v>
       </c>
+      <c r="ER502">
+        <v>1.40768</v>
+      </c>
+      <c r="ES502">
+        <v>1.97384</v>
+      </c>
+      <c r="ET502">
+        <v>0.04770798651995619</v>
+      </c>
+      <c r="EU502">
+        <v>1.003576215295821</v>
+      </c>
+      <c r="HB502">
+        <v>0.4757416563857957</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503">
@@ -31019,6 +35879,21 @@
       <c r="BD503">
         <v>35.84613</v>
       </c>
+      <c r="ER503">
+        <v>36.39416</v>
+      </c>
+      <c r="ES503">
+        <v>48.12973</v>
+      </c>
+      <c r="ET503">
+        <v>0.01140286466726571</v>
+      </c>
+      <c r="EU503">
+        <v>1.002873428309677</v>
+      </c>
+      <c r="HB503">
+        <v>0.4495484968929934</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504">
@@ -31077,6 +35952,21 @@
       <c r="BD504">
         <v>-0.09476</v>
       </c>
+      <c r="ER504">
+        <v>-0.09376</v>
+      </c>
+      <c r="ES504">
+        <v>0.10367</v>
+      </c>
+      <c r="ET504">
+        <v>0.009657170449058434</v>
+      </c>
+      <c r="EU504">
+        <v>1.002319063865326</v>
+      </c>
+      <c r="HB504">
+        <v>0.3657789819442632</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505">
@@ -31135,6 +36025,21 @@
       <c r="BD505">
         <v>-0.01765</v>
       </c>
+      <c r="ER505">
+        <v>-0.01775</v>
+      </c>
+      <c r="ES505">
+        <v>0.06543</v>
+      </c>
+      <c r="ET505">
+        <v>-0.001528117359413194</v>
+      </c>
+      <c r="EU505">
+        <v>0.9996943998795441</v>
+      </c>
+      <c r="HB505">
+        <v>0.7861739292170775</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506">
@@ -31193,6 +36098,21 @@
       <c r="BD506">
         <v>-0.01041</v>
       </c>
+      <c r="ER506">
+        <v>-0.01307</v>
+      </c>
+      <c r="ES506">
+        <v>0.02035</v>
+      </c>
+      <c r="ET506">
+        <v>-0.1301369863013698</v>
+      </c>
+      <c r="EU506">
+        <v>0.9912131253327002</v>
+      </c>
+      <c r="HB506">
+        <v>0.5207040941656544</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507">
@@ -31251,6 +36171,21 @@
       <c r="BD507">
         <v>-0.17138</v>
       </c>
+      <c r="ER507">
+        <v>-0.17031</v>
+      </c>
+      <c r="ES507">
+        <v>0.05516</v>
+      </c>
+      <c r="ET507">
+        <v>0.01922385914480804</v>
+      </c>
+      <c r="EU507">
+        <v>0.982114472796891</v>
+      </c>
+      <c r="HB507">
+        <v>0.002018046842184366</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508">
@@ -31309,6 +36244,21 @@
       <c r="BD508">
         <v>-0.27941</v>
       </c>
+      <c r="ER508">
+        <v>-0.27747</v>
+      </c>
+      <c r="ES508">
+        <v>0.2015</v>
+      </c>
+      <c r="ET508">
+        <v>0.007192377562747923</v>
+      </c>
+      <c r="EU508">
+        <v>0.5580737512944067</v>
+      </c>
+      <c r="HB508">
+        <v>0.1685053433488548</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509">
@@ -31367,6 +36317,21 @@
       <c r="BD509">
         <v>-1.57258</v>
       </c>
+      <c r="ER509">
+        <v>-1.5779</v>
+      </c>
+      <c r="ES509">
+        <v>0.22127</v>
+      </c>
+      <c r="ET509">
+        <v>-0.02494958495521264</v>
+      </c>
+      <c r="EU509">
+        <v>1.076833252077023</v>
+      </c>
+      <c r="HB509">
+        <v>9.956502893762087E-13</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510">
@@ -31425,6 +36390,21 @@
       <c r="BD510">
         <v>0.03889</v>
       </c>
+      <c r="ER510">
+        <v>0.02254</v>
+      </c>
+      <c r="ES510">
+        <v>0.11519</v>
+      </c>
+      <c r="ET510">
+        <v>-0.1371069182389937</v>
+      </c>
+      <c r="EU510">
+        <v>0.9330668952089625</v>
+      </c>
+      <c r="HB510">
+        <v>0.8448632162516935</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511">
@@ -31483,6 +36463,21 @@
       <c r="BD511">
         <v>-54.46166</v>
       </c>
+      <c r="ER511">
+        <v>-52.33381</v>
+      </c>
+      <c r="ES511">
+        <v>29.88205</v>
+      </c>
+      <c r="ET511">
+        <v>0.06025447416761275</v>
+      </c>
+      <c r="EU511">
+        <v>0.7160071487057778</v>
+      </c>
+      <c r="HB511">
+        <v>0.07988632132039983</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512">
@@ -31541,6 +36536,21 @@
       <c r="BD512">
         <v>-57.19311</v>
       </c>
+      <c r="ER512">
+        <v>-64.81376</v>
+      </c>
+      <c r="ES512">
+        <v>43.35361</v>
+      </c>
+      <c r="ET512">
+        <v>-0.205012036031693</v>
+      </c>
+      <c r="EU512">
+        <v>1.360270308997626</v>
+      </c>
+      <c r="HB512">
+        <v>0.1349137616001855</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513">
@@ -31599,6 +36609,21 @@
       <c r="BD513">
         <v>-4.18174</v>
       </c>
+      <c r="ER513">
+        <v>7.2762</v>
+      </c>
+      <c r="ES513">
+        <v>43.74636</v>
+      </c>
+      <c r="ET513">
+        <v>0.2308572630557538</v>
+      </c>
+      <c r="EU513">
+        <v>0.7768869794270841</v>
+      </c>
+      <c r="HB513">
+        <v>0.8678996337978103</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514">
@@ -31657,6 +36682,21 @@
       <c r="BD514">
         <v>131.62487</v>
       </c>
+      <c r="ER514">
+        <v>136.70366</v>
+      </c>
+      <c r="ES514">
+        <v>59.35267</v>
+      </c>
+      <c r="ET514">
+        <v>0.09721567689142033</v>
+      </c>
+      <c r="EU514">
+        <v>1.290721720354069</v>
+      </c>
+      <c r="HB514">
+        <v>0.02126513842671727</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515">
@@ -31715,6 +36755,21 @@
       <c r="BD515">
         <v>-4.88021</v>
       </c>
+      <c r="ER515">
+        <v>-12.51374</v>
+      </c>
+      <c r="ES515">
+        <v>32.55365</v>
+      </c>
+      <c r="ET515">
+        <v>-0.2372669417441779</v>
+      </c>
+      <c r="EU515">
+        <v>1.023818590445566</v>
+      </c>
+      <c r="HB515">
+        <v>0.7006793384692058</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516">
@@ -31831,6 +36886,21 @@
       <c r="BD517">
         <v>-78.04358000000001</v>
       </c>
+      <c r="ER517">
+        <v>-75.82239</v>
+      </c>
+      <c r="ES517">
+        <v>88.90627000000001</v>
+      </c>
+      <c r="ET517">
+        <v>0.02181006053958843</v>
+      </c>
+      <c r="EU517">
+        <v>0.762091474537326</v>
+      </c>
+      <c r="HB517">
+        <v>0.3937507415942477</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518">
@@ -31889,6 +36959,21 @@
       <c r="BD518">
         <v>-42.26525</v>
       </c>
+      <c r="ER518">
+        <v>-39.47837</v>
+      </c>
+      <c r="ES518">
+        <v>112.48525</v>
+      </c>
+      <c r="ET518">
+        <v>0.02599731321544085</v>
+      </c>
+      <c r="EU518">
+        <v>1.101061433940046</v>
+      </c>
+      <c r="HB518">
+        <v>0.7256147113333573</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519">
@@ -31947,6 +37032,21 @@
       <c r="BD519">
         <v>-85.40114</v>
       </c>
+      <c r="ER519">
+        <v>-67.65635</v>
+      </c>
+      <c r="ES519">
+        <v>64.79534</v>
+      </c>
+      <c r="ET519">
+        <v>0.3036018954426839</v>
+      </c>
+      <c r="EU519">
+        <v>1.229008185006665</v>
+      </c>
+      <c r="HB519">
+        <v>0.296413884478927</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520">
@@ -32005,6 +37105,21 @@
       <c r="BD520">
         <v>-46.1064</v>
       </c>
+      <c r="ER520">
+        <v>-34.68962</v>
+      </c>
+      <c r="ES520">
+        <v>72.55511</v>
+      </c>
+      <c r="ET520">
+        <v>0.1855736428009953</v>
+      </c>
+      <c r="EU520">
+        <v>1.390853318659015</v>
+      </c>
+      <c r="HB520">
+        <v>0.6325690079353632</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521">
@@ -32063,6 +37178,21 @@
       <c r="BD521">
         <v>-128.01665</v>
       </c>
+      <c r="ER521">
+        <v>-141.62887</v>
+      </c>
+      <c r="ES521">
+        <v>112.2525</v>
+      </c>
+      <c r="ET521">
+        <v>-0.1158998247311687</v>
+      </c>
+      <c r="EU521">
+        <v>0.913481346655671</v>
+      </c>
+      <c r="HB521">
+        <v>0.2070571072591479</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522">
@@ -32121,6 +37251,21 @@
       <c r="BD522">
         <v>-51.02858</v>
       </c>
+      <c r="ER522">
+        <v>-35.18618</v>
+      </c>
+      <c r="ES522">
+        <v>142.6649</v>
+      </c>
+      <c r="ET522">
+        <v>0.1281485884274117</v>
+      </c>
+      <c r="EU522">
+        <v>1.331741633855753</v>
+      </c>
+      <c r="HB522">
+        <v>0.8051905935740136</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523">
@@ -32179,6 +37324,21 @@
       <c r="BD523">
         <v>-5.73474</v>
       </c>
+      <c r="ER523">
+        <v>-5.35096</v>
+      </c>
+      <c r="ES523">
+        <v>5.72664</v>
+      </c>
+      <c r="ET523">
+        <v>0.06236796089367328</v>
+      </c>
+      <c r="EU523">
+        <v>0.8660803357348114</v>
+      </c>
+      <c r="HB523">
+        <v>0.3500987157192834</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524">
@@ -32237,6 +37397,21 @@
       <c r="BD524">
         <v>-4.89474</v>
       </c>
+      <c r="ER524">
+        <v>-4.94799</v>
+      </c>
+      <c r="ES524">
+        <v>6.68778</v>
+      </c>
+      <c r="ET524">
+        <v>-0.008221259172686622</v>
+      </c>
+      <c r="EU524">
+        <v>1.066108512393826</v>
+      </c>
+      <c r="HB524">
+        <v>0.4593877525443247</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525">
@@ -32295,6 +37470,21 @@
       <c r="BD525">
         <v>3.33105</v>
       </c>
+      <c r="ER525">
+        <v>3.43456</v>
+      </c>
+      <c r="ES525">
+        <v>2.36683</v>
+      </c>
+      <c r="ET525">
+        <v>0.05204724528225989</v>
+      </c>
+      <c r="EU525">
+        <v>1.416331814068885</v>
+      </c>
+      <c r="HB525">
+        <v>0.1467457836347097</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526">
@@ -32353,6 +37543,21 @@
       <c r="BD526">
         <v>1.8818</v>
       </c>
+      <c r="ER526">
+        <v>2.15707</v>
+      </c>
+      <c r="ES526">
+        <v>2.14771</v>
+      </c>
+      <c r="ET526">
+        <v>0.1314961043675987</v>
+      </c>
+      <c r="EU526">
+        <v>1.052590113332769</v>
+      </c>
+      <c r="HB526">
+        <v>0.3152060237843616</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527">
@@ -32411,6 +37616,21 @@
       <c r="BD527">
         <v>0.29091</v>
       </c>
+      <c r="ER527">
+        <v>0.11948</v>
+      </c>
+      <c r="ES527">
+        <v>0.45166</v>
+      </c>
+      <c r="ET527">
+        <v>-0.3043964629425761</v>
+      </c>
+      <c r="EU527">
+        <v>0.6431744938928545</v>
+      </c>
+      <c r="HB527">
+        <v>0.7913674910015837</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528">
@@ -32469,6 +37689,21 @@
       <c r="BD528">
         <v>-0.38689</v>
       </c>
+      <c r="ER528">
+        <v>-0.38707</v>
+      </c>
+      <c r="ES528">
+        <v>0.66618</v>
+      </c>
+      <c r="ET528">
+        <v>-0.000303643724696379</v>
+      </c>
+      <c r="EU528">
+        <v>1.262893681669917</v>
+      </c>
+      <c r="HB528">
+        <v>0.5612208066689963</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529">
@@ -32527,6 +37762,21 @@
       <c r="BD529">
         <v>1.55805</v>
       </c>
+      <c r="ER529">
+        <v>1.76098</v>
+      </c>
+      <c r="ES529">
+        <v>0.72102</v>
+      </c>
+      <c r="ET529">
+        <v>0.3256623818464848</v>
+      </c>
+      <c r="EU529">
+        <v>1.338866583439962</v>
+      </c>
+      <c r="HB529">
+        <v>0.01459217136750545</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530">
@@ -32585,6 +37835,21 @@
       <c r="BD530">
         <v>1.59186</v>
       </c>
+      <c r="ER530">
+        <v>1.70465</v>
+      </c>
+      <c r="ES530">
+        <v>0.66904</v>
+      </c>
+      <c r="ET530">
+        <v>0.1667036166659276</v>
+      </c>
+      <c r="EU530">
+        <v>0.977806721490585</v>
+      </c>
+      <c r="HB530">
+        <v>0.01083721461356598</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531">
@@ -32643,6 +37908,21 @@
       <c r="BD531">
         <v>0.20716</v>
       </c>
+      <c r="ER531">
+        <v>0.20991</v>
+      </c>
+      <c r="ES531">
+        <v>0.9529</v>
+      </c>
+      <c r="ET531">
+        <v>0.00311364228212996</v>
+      </c>
+      <c r="EU531">
+        <v>1.16403676849361</v>
+      </c>
+      <c r="HB531">
+        <v>0.8256488554164844</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532">
@@ -32701,6 +37981,21 @@
       <c r="BD532">
         <v>-0.30184</v>
       </c>
+      <c r="ER532">
+        <v>-0.35857</v>
+      </c>
+      <c r="ES532">
+        <v>0.93901</v>
+      </c>
+      <c r="ET532">
+        <v>-0.06102165284455775</v>
+      </c>
+      <c r="EU532">
+        <v>1.020194085015894</v>
+      </c>
+      <c r="HB532">
+        <v>0.7025654946182197</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533">
@@ -32759,6 +38054,21 @@
       <c r="BD533">
         <v>0.20785</v>
       </c>
+      <c r="ER533">
+        <v>0.08773</v>
+      </c>
+      <c r="ES533">
+        <v>1.23791</v>
+      </c>
+      <c r="ET533">
+        <v>-0.11159627640796</v>
+      </c>
+      <c r="EU533">
+        <v>1.322655990403811</v>
+      </c>
+      <c r="HB533">
+        <v>0.9435016581347365</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534">
@@ -32817,6 +38127,21 @@
       <c r="BD534">
         <v>-0.32632</v>
       </c>
+      <c r="ER534">
+        <v>-0.15402</v>
+      </c>
+      <c r="ES534">
+        <v>1.19518</v>
+      </c>
+      <c r="ET534">
+        <v>0.1520754816900414</v>
+      </c>
+      <c r="EU534">
+        <v>1.112793245235924</v>
+      </c>
+      <c r="HB534">
+        <v>0.8974623998547501</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535">
@@ -32875,6 +38200,21 @@
       <c r="BD535">
         <v>2.76947</v>
       </c>
+      <c r="ER535">
+        <v>1.03978</v>
+      </c>
+      <c r="ES535">
+        <v>5.42597</v>
+      </c>
+      <c r="ET535">
+        <v>-0.3790428439005897</v>
+      </c>
+      <c r="EU535">
+        <v>1.413822311386345</v>
+      </c>
+      <c r="HB535">
+        <v>0.8480318437639978</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536">
@@ -32933,6 +38273,21 @@
       <c r="BD536">
         <v>2.43947</v>
       </c>
+      <c r="ER536">
+        <v>3.26011</v>
+      </c>
+      <c r="ES536">
+        <v>4.83943</v>
+      </c>
+      <c r="ET536">
+        <v>0.1708488521457079</v>
+      </c>
+      <c r="EU536">
+        <v>1.015096176532088</v>
+      </c>
+      <c r="HB536">
+        <v>0.500530180291165</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537">
@@ -32991,6 +38346,21 @@
       <c r="BD537">
         <v>1.00842</v>
       </c>
+      <c r="ER537">
+        <v>0.37742</v>
+      </c>
+      <c r="ES537">
+        <v>2.34934</v>
+      </c>
+      <c r="ET537">
+        <v>-0.2770010140607647</v>
+      </c>
+      <c r="EU537">
+        <v>1.063642655387692</v>
+      </c>
+      <c r="HB537">
+        <v>0.8723695651845452</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538">
@@ -33049,6 +38419,21 @@
       <c r="BD538">
         <v>-0.13158</v>
       </c>
+      <c r="ER538">
+        <v>-0.05689</v>
+      </c>
+      <c r="ES538">
+        <v>2.5142</v>
+      </c>
+      <c r="ET538">
+        <v>0.03114964675658317</v>
+      </c>
+      <c r="EU538">
+        <v>1.099463907778362</v>
+      </c>
+      <c r="HB538">
+        <v>0.9819474268075997</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539">
@@ -33107,6 +38492,21 @@
       <c r="BD539">
         <v>-5.74118</v>
       </c>
+      <c r="ER539">
+        <v>-6.76329</v>
+      </c>
+      <c r="ES539">
+        <v>3.90202</v>
+      </c>
+      <c r="ET539">
+        <v>-0.3063116790486778</v>
+      </c>
+      <c r="EU539">
+        <v>1.367447996597995</v>
+      </c>
+      <c r="HB539">
+        <v>0.08304606064168032</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540">
@@ -33165,6 +38565,21 @@
       <c r="BD540">
         <v>-6.21176</v>
       </c>
+      <c r="ER540">
+        <v>-6.43106</v>
+      </c>
+      <c r="ES540">
+        <v>2.84371</v>
+      </c>
+      <c r="ET540">
+        <v>-0.06572105860951877</v>
+      </c>
+      <c r="EU540">
+        <v>0.7262772618773562</v>
+      </c>
+      <c r="HB540">
+        <v>0.02372809877348309</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541">
@@ -33223,6 +38638,21 @@
       <c r="BD541">
         <v>11.50219</v>
       </c>
+      <c r="ER541">
+        <v>6.66842</v>
+      </c>
+      <c r="ES541">
+        <v>7.69162</v>
+      </c>
+      <c r="ET541">
+        <v>-0.6458995320546569</v>
+      </c>
+      <c r="EU541">
+        <v>1.056315410836001</v>
+      </c>
+      <c r="HB541">
+        <v>0.3859572926938011</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542">
@@ -33281,6 +38711,21 @@
       <c r="BD542">
         <v>1.21053</v>
       </c>
+      <c r="ER542">
+        <v>0.01357</v>
+      </c>
+      <c r="ES542">
+        <v>4.892</v>
+      </c>
+      <c r="ET542">
+        <v>-0.1513813216777203</v>
+      </c>
+      <c r="EU542">
+        <v>0.3827879053236465</v>
+      </c>
+      <c r="HB542">
+        <v>0.9977867376114463</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543">
@@ -33339,6 +38784,21 @@
       <c r="BD543">
         <v>-2.29167</v>
       </c>
+      <c r="ER543">
+        <v>-2.83767</v>
+      </c>
+      <c r="ES543">
+        <v>2.50687</v>
+      </c>
+      <c r="ET543">
+        <v>-0.2102344923183552</v>
+      </c>
+      <c r="EU543">
+        <v>0.9317218530567027</v>
+      </c>
+      <c r="HB543">
+        <v>0.2576523526378617</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544">
@@ -33397,6 +38857,21 @@
       <c r="BD544">
         <v>0.78947</v>
       </c>
+      <c r="ER544">
+        <v>0.55025</v>
+      </c>
+      <c r="ES544">
+        <v>2.38603</v>
+      </c>
+      <c r="ET544">
+        <v>-0.08718120658614985</v>
+      </c>
+      <c r="EU544">
+        <v>0.7561406360453726</v>
+      </c>
+      <c r="HB544">
+        <v>0.8176153163156371</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545">
@@ -33455,6 +38930,21 @@
       <c r="BD545">
         <v>-129.38599</v>
       </c>
+      <c r="ER545">
+        <v>-17.41066</v>
+      </c>
+      <c r="ES545">
+        <v>211.92952</v>
+      </c>
+      <c r="ET545">
+        <v>0.5326651574650607</v>
+      </c>
+      <c r="EU545">
+        <v>1.016358179125024</v>
+      </c>
+      <c r="HB545">
+        <v>0.9345249945459055</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546">
@@ -33513,6 +39003,21 @@
       <c r="BD546">
         <v>323.62504</v>
       </c>
+      <c r="ER546">
+        <v>360.24393</v>
+      </c>
+      <c r="ES546">
+        <v>225.28249</v>
+      </c>
+      <c r="ET546">
+        <v>0.1654916718152766</v>
+      </c>
+      <c r="EU546">
+        <v>1.036565643837078</v>
+      </c>
+      <c r="HB546">
+        <v>0.1098036111275491</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547">
@@ -33571,6 +39076,21 @@
       <c r="BD547">
         <v>-99.65841</v>
       </c>
+      <c r="ER547">
+        <v>-77.08434</v>
+      </c>
+      <c r="ES547">
+        <v>102.22083</v>
+      </c>
+      <c r="ET547">
+        <v>0.217771777351381</v>
+      </c>
+      <c r="EU547">
+        <v>0.9724387634100234</v>
+      </c>
+      <c r="HB547">
+        <v>0.4507914558665604</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548">
@@ -33629,6 +39149,21 @@
       <c r="BD548">
         <v>188.55337</v>
       </c>
+      <c r="ER548">
+        <v>218.16273</v>
+      </c>
+      <c r="ES548">
+        <v>119.08895</v>
+      </c>
+      <c r="ET548">
+        <v>0.2713687085044815</v>
+      </c>
+      <c r="EU548">
+        <v>1.191254151523232</v>
+      </c>
+      <c r="HB548">
+        <v>0.06696171287917015</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549">
@@ -33687,6 +39222,21 @@
       <c r="BD549">
         <v>0.02601</v>
       </c>
+      <c r="ER549">
+        <v>-0.0006400000000000001</v>
+      </c>
+      <c r="ES549">
+        <v>0.15209</v>
+      </c>
+      <c r="ET549">
+        <v>-0.1730294766913388</v>
+      </c>
+      <c r="EU549">
+        <v>0.9750953416536213</v>
+      </c>
+      <c r="HB549">
+        <v>0.9966424839774561</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550">
@@ -33745,6 +39295,21 @@
       <c r="BD550">
         <v>-0.08032</v>
       </c>
+      <c r="ER550">
+        <v>-0.06233</v>
+      </c>
+      <c r="ES550">
+        <v>0.19796</v>
+      </c>
+      <c r="ET550">
+        <v>0.1109671848013817</v>
+      </c>
+      <c r="EU550">
+        <v>1.491013927294096</v>
+      </c>
+      <c r="HB550">
+        <v>0.7528667474508833</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551">
@@ -33803,6 +39368,21 @@
       <c r="BD551">
         <v>-56.83806</v>
       </c>
+      <c r="ER551">
+        <v>-39.3852</v>
+      </c>
+      <c r="ES551">
+        <v>49.73108</v>
+      </c>
+      <c r="ET551">
+        <v>0.2925722136811841</v>
+      </c>
+      <c r="EU551">
+        <v>0.6950062772749968</v>
+      </c>
+      <c r="HB551">
+        <v>0.4283819611795998</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552">
@@ -33861,6 +39441,21 @@
       <c r="BD552">
         <v>76.23481</v>
       </c>
+      <c r="ER552">
+        <v>94.60357</v>
+      </c>
+      <c r="ES552">
+        <v>66.82886999999999</v>
+      </c>
+      <c r="ET552">
+        <v>0.2925400593528521</v>
+      </c>
+      <c r="EU552">
+        <v>1.132763498610099</v>
+      </c>
+      <c r="HB552">
+        <v>0.1568899263829372</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553">
@@ -33919,6 +39514,21 @@
       <c r="BD553">
         <v>-12.98977</v>
       </c>
+      <c r="ER553">
+        <v>-10.89972</v>
+      </c>
+      <c r="ES553">
+        <v>54.78424</v>
+      </c>
+      <c r="ET553">
+        <v>0.04436039047246506</v>
+      </c>
+      <c r="EU553">
+        <v>1.352037232486538</v>
+      </c>
+      <c r="HB553">
+        <v>0.8422962103120436</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554">
@@ -33977,6 +39587,21 @@
       <c r="BD554">
         <v>-24.39987</v>
       </c>
+      <c r="ER554">
+        <v>-28.72338</v>
+      </c>
+      <c r="ES554">
+        <v>43.18152</v>
+      </c>
+      <c r="ET554">
+        <v>-0.08717947477084058</v>
+      </c>
+      <c r="EU554">
+        <v>0.7581434930058101</v>
+      </c>
+      <c r="HB554">
+        <v>0.5059369034640433</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555">
@@ -34035,6 +39660,21 @@
       <c r="BD555">
         <v>37.00674</v>
       </c>
+      <c r="ER555">
+        <v>30.03376</v>
+      </c>
+      <c r="ES555">
+        <v>17.02508</v>
+      </c>
+      <c r="ET555">
+        <v>-0.235160211573976</v>
+      </c>
+      <c r="EU555">
+        <v>0.3296622117365891</v>
+      </c>
+      <c r="HB555">
+        <v>0.07771696009073917</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556">
@@ -34093,6 +39733,21 @@
       <c r="BD556">
         <v>62.34307</v>
       </c>
+      <c r="ER556">
+        <v>62.55595</v>
+      </c>
+      <c r="ES556">
+        <v>36.60251</v>
+      </c>
+      <c r="ET556">
+        <v>0.006820547636661838</v>
+      </c>
+      <c r="EU556">
+        <v>1.375278031998313</v>
+      </c>
+      <c r="HB556">
+        <v>0.0874395108054878</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557">
@@ -34151,6 +39806,21 @@
       <c r="BD557">
         <v>17.72593</v>
       </c>
+      <c r="ER557">
+        <v>32.06669</v>
+      </c>
+      <c r="ES557">
+        <v>28.29206</v>
+      </c>
+      <c r="ET557">
+        <v>0.4781343479646692</v>
+      </c>
+      <c r="EU557">
+        <v>0.8897842053915608</v>
+      </c>
+      <c r="HB557">
+        <v>0.2570393529792354</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558">
@@ -34209,6 +39879,21 @@
       <c r="BD558">
         <v>22.6241</v>
       </c>
+      <c r="ER558">
+        <v>24.24158</v>
+      </c>
+      <c r="ES558">
+        <v>33.17594</v>
+      </c>
+      <c r="ET558">
+        <v>0.05123369410113135</v>
+      </c>
+      <c r="EU558">
+        <v>1.104281958857681</v>
+      </c>
+      <c r="HB558">
+        <v>0.4649638769636891</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559">
@@ -34267,6 +39952,21 @@
       <c r="BD559">
         <v>15.47791</v>
       </c>
+      <c r="ER559">
+        <v>21.17854</v>
+      </c>
+      <c r="ES559">
+        <v>23.40561</v>
+      </c>
+      <c r="ET559">
+        <v>0.2197926466279053</v>
+      </c>
+      <c r="EU559">
+        <v>0.8143676956068892</v>
+      </c>
+      <c r="HB559">
+        <v>0.3655454520565061</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560">
@@ -34325,6 +40025,21 @@
       <c r="BD560">
         <v>25.18251</v>
       </c>
+      <c r="ER560">
+        <v>25.53016</v>
+      </c>
+      <c r="ES560">
+        <v>29.29161</v>
+      </c>
+      <c r="ET560">
+        <v>0.01273419900734411</v>
+      </c>
+      <c r="EU560">
+        <v>1.151185429486614</v>
+      </c>
+      <c r="HB560">
+        <v>0.3834342186384343</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561">
@@ -34383,6 +40098,21 @@
       <c r="BD561">
         <v>18.95428</v>
       </c>
+      <c r="ER561">
+        <v>20.02027</v>
+      </c>
+      <c r="ES561">
+        <v>24.53612</v>
+      </c>
+      <c r="ET561">
+        <v>0.03877878424096909</v>
+      </c>
+      <c r="EU561">
+        <v>0.7966983017870899</v>
+      </c>
+      <c r="HB561">
+        <v>0.4145281998507183</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562">
@@ -34441,6 +40171,21 @@
       <c r="BD562">
         <v>45.2347</v>
       </c>
+      <c r="ER562">
+        <v>45.20071</v>
+      </c>
+      <c r="ES562">
+        <v>38.13886</v>
+      </c>
+      <c r="ET562">
+        <v>-0.001174711255696719</v>
+      </c>
+      <c r="EU562">
+        <v>1.737382112798067</v>
+      </c>
+      <c r="HB562">
+        <v>0.2359535836068049</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563">
@@ -34499,6 +40244,21 @@
       <c r="BD563">
         <v>2.18857</v>
       </c>
+      <c r="ER563">
+        <v>11.31045</v>
+      </c>
+      <c r="ES563">
+        <v>69.82102</v>
+      </c>
+      <c r="ET563">
+        <v>0.125701603178162</v>
+      </c>
+      <c r="EU563">
+        <v>0.9257320545128587</v>
+      </c>
+      <c r="HB563">
+        <v>0.8713121162017505</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564">
@@ -34557,6 +40317,21 @@
       <c r="BD564">
         <v>137.71777</v>
       </c>
+      <c r="ER564">
+        <v>155.38018</v>
+      </c>
+      <c r="ES564">
+        <v>84.8981</v>
+      </c>
+      <c r="ET564">
+        <v>0.2312306521307105</v>
+      </c>
+      <c r="EU564">
+        <v>1.235340916306315</v>
+      </c>
+      <c r="HB564">
+        <v>0.06722060583705788</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565">
@@ -34615,6 +40390,21 @@
       <c r="BD565">
         <v>5.09173</v>
       </c>
+      <c r="ER565">
+        <v>5.16816</v>
+      </c>
+      <c r="ES565">
+        <v>0.89758</v>
+      </c>
+      <c r="ET565">
+        <v>0.09119872085530895</v>
+      </c>
+      <c r="EU565">
+        <v>1.147086342165858</v>
+      </c>
+      <c r="HB565">
+        <v>8.517570530153646E-09</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566">
@@ -34673,6 +40463,21 @@
       <c r="BD566">
         <v>-0.06962</v>
       </c>
+      <c r="ER566">
+        <v>-0.03376</v>
+      </c>
+      <c r="ES566">
+        <v>0.11814</v>
+      </c>
+      <c r="ET566">
+        <v>0.3088716623600345</v>
+      </c>
+      <c r="EU566">
+        <v>1.035450860992595</v>
+      </c>
+      <c r="HB566">
+        <v>0.7750599132600069</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567">
@@ -34731,6 +40536,21 @@
       <c r="BD567">
         <v>1.78624</v>
       </c>
+      <c r="ER567">
+        <v>1.81404</v>
+      </c>
+      <c r="ES567">
+        <v>0.23171</v>
+      </c>
+      <c r="ET567">
+        <v>0.1238197042579728</v>
+      </c>
+      <c r="EU567">
+        <v>1.065073274754855</v>
+      </c>
+      <c r="HB567">
+        <v>4.920626269653126E-15</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568">
@@ -34789,6 +40609,21 @@
       <c r="BD568">
         <v>1.39476</v>
       </c>
+      <c r="ER568">
+        <v>1.43315</v>
+      </c>
+      <c r="ES568">
+        <v>0.32794</v>
+      </c>
+      <c r="ET568">
+        <v>0.123262160860491</v>
+      </c>
+      <c r="EU568">
+        <v>1.108695064574137</v>
+      </c>
+      <c r="HB568">
+        <v>1.241559995616598E-05</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569">
@@ -34847,6 +40682,21 @@
       <c r="BD569">
         <v>1.26126</v>
       </c>
+      <c r="ER569">
+        <v>1.26122</v>
+      </c>
+      <c r="ES569">
+        <v>0.49852</v>
+      </c>
+      <c r="ET569">
+        <v>-8.348987685251513E-05</v>
+      </c>
+      <c r="EU569">
+        <v>1.082711702754778</v>
+      </c>
+      <c r="HB569">
+        <v>0.01140857438102774</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570">
@@ -34905,6 +40755,21 @@
       <c r="BD570">
         <v>0.46519</v>
       </c>
+      <c r="ER570">
+        <v>0.49728</v>
+      </c>
+      <c r="ES570">
+        <v>0.21119</v>
+      </c>
+      <c r="ET570">
+        <v>0.1629595774933984</v>
+      </c>
+      <c r="EU570">
+        <v>1.150183269743858</v>
+      </c>
+      <c r="HB570">
+        <v>0.01853981280123825</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571">
@@ -34963,6 +40828,21 @@
       <c r="BD571">
         <v>-0.06349</v>
       </c>
+      <c r="ER571">
+        <v>-0.06677</v>
+      </c>
+      <c r="ES571">
+        <v>0.05528</v>
+      </c>
+      <c r="ET571">
+        <v>-0.0591310618352261</v>
+      </c>
+      <c r="EU571">
+        <v>0.9931611826615369</v>
+      </c>
+      <c r="HB571">
+        <v>0.2271046030728474</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572">
@@ -35021,6 +40901,21 @@
       <c r="BD572">
         <v>-0.39027</v>
       </c>
+      <c r="ER572">
+        <v>-0.35296</v>
+      </c>
+      <c r="ES572">
+        <v>0.22032</v>
+      </c>
+      <c r="ET572">
+        <v>0.1630966952264382</v>
+      </c>
+      <c r="EU572">
+        <v>0.9275720847314428</v>
+      </c>
+      <c r="HB572">
+        <v>0.1091482225485881</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573">
@@ -35079,6 +40974,21 @@
       <c r="BD573">
         <v>-0.0873</v>
       </c>
+      <c r="ER573">
+        <v>-0.0867</v>
+      </c>
+      <c r="ES573">
+        <v>0.02543</v>
+      </c>
+      <c r="ET573">
+        <v>0.02376237623762389</v>
+      </c>
+      <c r="EU573">
+        <v>1.014308244289776</v>
+      </c>
+      <c r="HB573">
+        <v>0.0006511572269519662</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574">
@@ -35137,6 +41047,21 @@
       <c r="BD574">
         <v>-0.09762999999999999</v>
       </c>
+      <c r="ER574">
+        <v>-0.09221</v>
+      </c>
+      <c r="ES574">
+        <v>0.06278</v>
+      </c>
+      <c r="ET574">
+        <v>0.08589540412044365</v>
+      </c>
+      <c r="EU574">
+        <v>0.9898830874947571</v>
+      </c>
+      <c r="HB574">
+        <v>0.1418925067394652</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575">
@@ -35195,6 +41120,21 @@
       <c r="BD575">
         <v>0.1927</v>
       </c>
+      <c r="ER575">
+        <v>0.17928</v>
+      </c>
+      <c r="ES575">
+        <v>0.50782</v>
+      </c>
+      <c r="ET575">
+        <v>-0.02591984548527284</v>
+      </c>
+      <c r="EU575">
+        <v>0.9620095584071126</v>
+      </c>
+      <c r="HB575">
+        <v>0.7240595940191401</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576">
@@ -35253,6 +41193,21 @@
       <c r="BD576">
         <v>-0.02068</v>
       </c>
+      <c r="ER576">
+        <v>0.04878</v>
+      </c>
+      <c r="ES576">
+        <v>0.48265</v>
+      </c>
+      <c r="ET576">
+        <v>0.131398736332337</v>
+      </c>
+      <c r="EU576">
+        <v>0.8336378797097235</v>
+      </c>
+      <c r="HB576">
+        <v>0.9194972535846955</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577">
@@ -35311,6 +41266,21 @@
       <c r="BD577">
         <v>21.62432</v>
       </c>
+      <c r="ER577">
+        <v>21.63998</v>
+      </c>
+      <c r="ES577">
+        <v>3.0173</v>
+      </c>
+      <c r="ET577">
+        <v>0.004385559578919195</v>
+      </c>
+      <c r="EU577">
+        <v>0.7140086955291272</v>
+      </c>
+      <c r="HB577">
+        <v>7.392705414979308E-13</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578">
@@ -35369,6 +41339,21 @@
       <c r="BD578">
         <v>1.22973</v>
       </c>
+      <c r="ER578">
+        <v>1.24975</v>
+      </c>
+      <c r="ES578">
+        <v>0.22569</v>
+      </c>
+      <c r="ET578">
+        <v>0.0876417283193973</v>
+      </c>
+      <c r="EU578">
+        <v>0.976154034434578</v>
+      </c>
+      <c r="HB578">
+        <v>3.068846887705017E-08</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579">
@@ -35427,6 +41412,21 @@
       <c r="BD579">
         <v>22.25946</v>
       </c>
+      <c r="ER579">
+        <v>22.85714</v>
+      </c>
+      <c r="ES579">
+        <v>3.39419</v>
+      </c>
+      <c r="ET579">
+        <v>0.1438504694491044</v>
+      </c>
+      <c r="EU579">
+        <v>0.6673557695415481</v>
+      </c>
+      <c r="HB579">
+        <v>1.64839093760611E-11</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580">
@@ -35485,6 +41485,21 @@
       <c r="BD580">
         <v>-2.67568</v>
       </c>
+      <c r="ER580">
+        <v>-2.66137</v>
+      </c>
+      <c r="ES580">
+        <v>1.91117</v>
+      </c>
+      <c r="ET580">
+        <v>0.006526825663971122</v>
+      </c>
+      <c r="EU580">
+        <v>0.7598421774039976</v>
+      </c>
+      <c r="HB580">
+        <v>0.1637606273360041</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581">
@@ -35543,6 +41558,21 @@
       <c r="BD581">
         <v>-0.56757</v>
       </c>
+      <c r="ER581">
+        <v>-0.56193</v>
+      </c>
+      <c r="ES581">
+        <v>0.09554</v>
+      </c>
+      <c r="ET581">
+        <v>0.05863395363343361</v>
+      </c>
+      <c r="EU581">
+        <v>0.9865307448640916</v>
+      </c>
+      <c r="HB581">
+        <v>4.062695859362945E-09</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582">
@@ -35601,6 +41631,21 @@
       <c r="BD582">
         <v>0.02703</v>
       </c>
+      <c r="ER582">
+        <v>0.01513</v>
+      </c>
+      <c r="ES582">
+        <v>0.04962</v>
+      </c>
+      <c r="ET582">
+        <v>-0.2014218009478673</v>
+      </c>
+      <c r="EU582">
+        <v>0.7053952755154755</v>
+      </c>
+      <c r="HB582">
+        <v>0.7604290844608304</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583">
@@ -35717,6 +41762,21 @@
       <c r="BD584">
         <v>0.59459</v>
       </c>
+      <c r="ER584">
+        <v>0.58752</v>
+      </c>
+      <c r="ES584">
+        <v>0.09440999999999999</v>
+      </c>
+      <c r="ET584">
+        <v>-0.07499734804285467</v>
+      </c>
+      <c r="EU584">
+        <v>1.002972397511829</v>
+      </c>
+      <c r="HB584">
+        <v>4.875210048760638E-10</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585">
@@ -35775,6 +41835,21 @@
       <c r="BD585">
         <v>27.54054</v>
       </c>
+      <c r="ER585">
+        <v>27.54618</v>
+      </c>
+      <c r="ES585">
+        <v>4.6455</v>
+      </c>
+      <c r="ET585">
+        <v>0.001234416584955799</v>
+      </c>
+      <c r="EU585">
+        <v>1.033784977583857</v>
+      </c>
+      <c r="HB585">
+        <v>3.035846867582201E-09</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586">
@@ -35833,6 +41908,21 @@
       <c r="BD586">
         <v>31.05135</v>
       </c>
+      <c r="ER586">
+        <v>32.75245</v>
+      </c>
+      <c r="ES586">
+        <v>5.57104</v>
+      </c>
+      <c r="ET586">
+        <v>0.2935937839787651</v>
+      </c>
+      <c r="EU586">
+        <v>0.9244992794378005</v>
+      </c>
+      <c r="HB586">
+        <v>4.126155216254915E-09</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587">
@@ -35891,6 +41981,21 @@
       <c r="BD587">
         <v>34.26757</v>
       </c>
+      <c r="ER587">
+        <v>34.93654</v>
+      </c>
+      <c r="ES587">
+        <v>6.01275</v>
+      </c>
+      <c r="ET587">
+        <v>0.1064127281056733</v>
+      </c>
+      <c r="EU587">
+        <v>0.9147873790648233</v>
+      </c>
+      <c r="HB587">
+        <v>6.232019748340684E-09</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588">
@@ -35949,6 +42054,21 @@
       <c r="BD588">
         <v>28.00811</v>
       </c>
+      <c r="ER588">
+        <v>28.13685</v>
+      </c>
+      <c r="ES588">
+        <v>7.35523</v>
+      </c>
+      <c r="ET588">
+        <v>0.01648397377212072</v>
+      </c>
+      <c r="EU588">
+        <v>0.8869299810044948</v>
+      </c>
+      <c r="HB588">
+        <v>0.0001305488885426889</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589">
@@ -36007,6 +42127,21 @@
       <c r="BD589">
         <v>24.21351</v>
       </c>
+      <c r="ER589">
+        <v>24.20702</v>
+      </c>
+      <c r="ES589">
+        <v>7.17498</v>
+      </c>
+      <c r="ET589">
+        <v>-0.0008081487292514278</v>
+      </c>
+      <c r="EU589">
+        <v>0.7982420185277985</v>
+      </c>
+      <c r="HB589">
+        <v>0.000741354916393581</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590">
@@ -36065,6 +42200,21 @@
       <c r="BD590">
         <v>20.81081</v>
       </c>
+      <c r="ER590">
+        <v>23.23422</v>
+      </c>
+      <c r="ES590">
+        <v>7.57156</v>
+      </c>
+      <c r="ET590">
+        <v>0.3027608668764688</v>
+      </c>
+      <c r="EU590">
+        <v>0.8947803235288828</v>
+      </c>
+      <c r="HB590">
+        <v>0.002150518849543623</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591">
@@ -36123,6 +42273,21 @@
       <c r="BD591">
         <v>13.17027</v>
       </c>
+      <c r="ER591">
+        <v>13.91287</v>
+      </c>
+      <c r="ES591">
+        <v>8.51817</v>
+      </c>
+      <c r="ET591">
+        <v>0.08942839767095978</v>
+      </c>
+      <c r="EU591">
+        <v>1.052285570918271</v>
+      </c>
+      <c r="HB591">
+        <v>0.1024023893447678</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592">
@@ -36181,6 +42346,21 @@
       <c r="BD592">
         <v>9.82432</v>
       </c>
+      <c r="ER592">
+        <v>11.54989</v>
+      </c>
+      <c r="ES592">
+        <v>7.18371</v>
+      </c>
+      <c r="ET592">
+        <v>0.2063938224307672</v>
+      </c>
+      <c r="EU592">
+        <v>0.7382879991341098</v>
+      </c>
+      <c r="HB592">
+        <v>0.1078813958761254</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593">
@@ -36239,6 +42419,21 @@
       <c r="BD593">
         <v>-1.86486</v>
       </c>
+      <c r="ER593">
+        <v>-3.55395</v>
+      </c>
+      <c r="ES593">
+        <v>2.79547</v>
+      </c>
+      <c r="ET593">
+        <v>-0.3974179795584166</v>
+      </c>
+      <c r="EU593">
+        <v>0.4326125484710975</v>
+      </c>
+      <c r="HB593">
+        <v>0.2036131662012325</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594">
@@ -36297,6 +42492,21 @@
       <c r="BD594">
         <v>61.61074</v>
       </c>
+      <c r="ER594">
+        <v>60.91488</v>
+      </c>
+      <c r="ES594">
+        <v>14.75189</v>
+      </c>
+      <c r="ET594">
+        <v>-0.04211885960824021</v>
+      </c>
+      <c r="EU594">
+        <v>0.7972688442016993</v>
+      </c>
+      <c r="HB594">
+        <v>3.638800276065782E-05</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595">
@@ -36354,6 +42564,21 @@
       </c>
       <c r="BD595">
         <v>-0.54408</v>
+      </c>
+      <c r="ER595">
+        <v>-0.57852</v>
+      </c>
+      <c r="ES595">
+        <v>0.17573</v>
+      </c>
+      <c r="ET595">
+        <v>-0.1825990138380787</v>
+      </c>
+      <c r="EU595">
+        <v>0.8680852718289853</v>
+      </c>
+      <c r="HB595">
+        <v>0.0009944372061523243</v>
       </c>
     </row>
   </sheetData>
